--- a/newTable.xlsx
+++ b/newTable.xlsx
@@ -499,7 +499,7 @@
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>Quantidade baixa de ???</t>
+          <t>Quantidade baixa de estoque</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="AF1" t="inlineStr">
         <is>
-          <t>Dias para expirar o ???</t>
+          <t>Dias para expirar o download</t>
         </is>
       </c>
       <c r="AG1" t="inlineStr">
@@ -685,7 +685,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>14207</v>
+        <v>14441</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -766,6 +766,9 @@
           <t>Baguete</t>
         </is>
       </c>
+      <c r="AP2" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ2" t="n">
         <v>1</v>
       </c>
@@ -779,6 +782,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT2" t="n">
+        <v>1</v>
+      </c>
       <c r="AU2" t="n">
         <v>1</v>
       </c>
@@ -791,6 +797,9 @@
         <is>
           <t>2 X  4</t>
         </is>
+      </c>
+      <c r="AX2" t="n">
+        <v>1</v>
       </c>
       <c r="AY2" t="n">
         <v>1</v>
@@ -798,7 +807,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>14208</v>
+        <v>14442</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -879,6 +888,9 @@
           <t>Baguete</t>
         </is>
       </c>
+      <c r="AP3" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ3" t="n">
         <v>1</v>
       </c>
@@ -892,6 +904,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT3" t="n">
+        <v>1</v>
+      </c>
       <c r="AU3" t="n">
         <v>1</v>
       </c>
@@ -904,6 +919,9 @@
         <is>
           <t>2.5 X  5</t>
         </is>
+      </c>
+      <c r="AX3" t="n">
+        <v>1</v>
       </c>
       <c r="AY3" t="n">
         <v>1</v>
@@ -911,7 +929,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>14209</v>
+        <v>14443</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -992,6 +1010,9 @@
           <t>Baguete</t>
         </is>
       </c>
+      <c r="AP4" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ4" t="n">
         <v>1</v>
       </c>
@@ -1005,6 +1026,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT4" t="n">
+        <v>1</v>
+      </c>
       <c r="AU4" t="n">
         <v>1</v>
       </c>
@@ -1017,6 +1041,9 @@
         <is>
           <t>3 X  5</t>
         </is>
+      </c>
+      <c r="AX4" t="n">
+        <v>1</v>
       </c>
       <c r="AY4" t="n">
         <v>1</v>
@@ -1024,7 +1051,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>14210</v>
+        <v>14444</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1105,6 +1132,9 @@
           <t>Baguete</t>
         </is>
       </c>
+      <c r="AP5" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ5" t="n">
         <v>1</v>
       </c>
@@ -1118,6 +1148,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT5" t="n">
+        <v>1</v>
+      </c>
       <c r="AU5" t="n">
         <v>1</v>
       </c>
@@ -1130,6 +1163,9 @@
         <is>
           <t>3 X  6</t>
         </is>
+      </c>
+      <c r="AX5" t="n">
+        <v>1</v>
       </c>
       <c r="AY5" t="n">
         <v>1</v>
@@ -1137,7 +1173,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>14211</v>
+        <v>14445</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1218,6 +1254,9 @@
           <t>Baguete</t>
         </is>
       </c>
+      <c r="AP6" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ6" t="n">
         <v>1</v>
       </c>
@@ -1231,6 +1270,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT6" t="n">
+        <v>1</v>
+      </c>
       <c r="AU6" t="n">
         <v>1</v>
       </c>
@@ -1243,6 +1285,9 @@
         <is>
           <t>4 X  6</t>
         </is>
+      </c>
+      <c r="AX6" t="n">
+        <v>1</v>
       </c>
       <c r="AY6" t="n">
         <v>1</v>
@@ -1250,7 +1295,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>14212</v>
+        <v>14446</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1331,6 +1376,9 @@
           <t>Baguete</t>
         </is>
       </c>
+      <c r="AP7" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ7" t="n">
         <v>1</v>
       </c>
@@ -1344,6 +1392,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT7" t="n">
+        <v>1</v>
+      </c>
       <c r="AU7" t="n">
         <v>1</v>
       </c>
@@ -1356,6 +1407,9 @@
         <is>
           <t>5 X  7</t>
         </is>
+      </c>
+      <c r="AX7" t="n">
+        <v>1</v>
       </c>
       <c r="AY7" t="n">
         <v>1</v>
@@ -1363,7 +1417,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>14213</v>
+        <v>14447</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1444,6 +1498,9 @@
           <t>Baguete</t>
         </is>
       </c>
+      <c r="AP8" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ8" t="n">
         <v>1</v>
       </c>
@@ -1457,6 +1514,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT8" t="n">
+        <v>1</v>
+      </c>
       <c r="AU8" t="n">
         <v>1</v>
       </c>
@@ -1469,6 +1529,9 @@
         <is>
           <t>6 X  8</t>
         </is>
+      </c>
+      <c r="AX8" t="n">
+        <v>1</v>
       </c>
       <c r="AY8" t="n">
         <v>1</v>
@@ -1476,7 +1539,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>14214</v>
+        <v>14448</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1557,6 +1620,9 @@
           <t>Baguete</t>
         </is>
       </c>
+      <c r="AP9" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ9" t="n">
         <v>1</v>
       </c>
@@ -1570,6 +1636,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT9" t="n">
+        <v>1</v>
+      </c>
       <c r="AU9" t="n">
         <v>1</v>
       </c>
@@ -1582,6 +1651,9 @@
         <is>
           <t>7 X  9</t>
         </is>
+      </c>
+      <c r="AX9" t="n">
+        <v>1</v>
       </c>
       <c r="AY9" t="n">
         <v>1</v>
@@ -1589,7 +1661,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>14215</v>
+        <v>14449</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1670,6 +1742,9 @@
           <t>Baguete</t>
         </is>
       </c>
+      <c r="AP10" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ10" t="n">
         <v>1</v>
       </c>
@@ -1683,6 +1758,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT10" t="n">
+        <v>1</v>
+      </c>
       <c r="AU10" t="n">
         <v>1</v>
       </c>
@@ -1695,6 +1773,9 @@
         <is>
           <t>8 X 10</t>
         </is>
+      </c>
+      <c r="AX10" t="n">
+        <v>1</v>
       </c>
       <c r="AY10" t="n">
         <v>1</v>
@@ -1702,7 +1783,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>14216</v>
+        <v>14450</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1783,6 +1864,9 @@
           <t>Baguete</t>
         </is>
       </c>
+      <c r="AP11" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ11" t="n">
         <v>1</v>
       </c>
@@ -1796,6 +1880,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT11" t="n">
+        <v>1</v>
+      </c>
       <c r="AU11" t="n">
         <v>1</v>
       </c>
@@ -1808,6 +1895,9 @@
         <is>
           <t>9 X 11</t>
         </is>
+      </c>
+      <c r="AX11" t="n">
+        <v>1</v>
       </c>
       <c r="AY11" t="n">
         <v>1</v>
@@ -1815,7 +1905,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>14217</v>
+        <v>14451</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1896,6 +1986,9 @@
           <t>Baguete</t>
         </is>
       </c>
+      <c r="AP12" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ12" t="n">
         <v>1</v>
       </c>
@@ -1909,6 +2002,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT12" t="n">
+        <v>1</v>
+      </c>
       <c r="AU12" t="n">
         <v>1</v>
       </c>
@@ -1921,6 +2017,9 @@
         <is>
           <t>10 X 12</t>
         </is>
+      </c>
+      <c r="AX12" t="n">
+        <v>1</v>
       </c>
       <c r="AY12" t="n">
         <v>1</v>
@@ -1928,7 +2027,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>14218</v>
+        <v>14452</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -2009,6 +2108,9 @@
           <t>Baguete</t>
         </is>
       </c>
+      <c r="AP13" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ13" t="n">
         <v>1</v>
       </c>
@@ -2022,6 +2124,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT13" t="n">
+        <v>1</v>
+      </c>
       <c r="AU13" t="n">
         <v>1</v>
       </c>
@@ -2034,6 +2139,9 @@
         <is>
           <t>10 X 14</t>
         </is>
+      </c>
+      <c r="AX13" t="n">
+        <v>1</v>
       </c>
       <c r="AY13" t="n">
         <v>1</v>
@@ -2041,7 +2149,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>14219</v>
+        <v>14453</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -2122,6 +2230,9 @@
           <t>Baguete</t>
         </is>
       </c>
+      <c r="AP14" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ14" t="n">
         <v>1</v>
       </c>
@@ -2135,6 +2246,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT14" t="n">
+        <v>1</v>
+      </c>
       <c r="AU14" t="n">
         <v>1</v>
       </c>
@@ -2147,6 +2261,9 @@
         <is>
           <t>12 X 14</t>
         </is>
+      </c>
+      <c r="AX14" t="n">
+        <v>1</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
@@ -2154,7 +2271,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>14220</v>
+        <v>14454</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -2235,6 +2352,9 @@
           <t>Baguete</t>
         </is>
       </c>
+      <c r="AP15" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ15" t="n">
         <v>1</v>
       </c>
@@ -2248,6 +2368,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT15" t="n">
+        <v>1</v>
+      </c>
       <c r="AU15" t="n">
         <v>1</v>
       </c>
@@ -2260,6 +2383,9 @@
         <is>
           <t>12 X 16</t>
         </is>
+      </c>
+      <c r="AX15" t="n">
+        <v>1</v>
       </c>
       <c r="AY15" t="n">
         <v>1</v>
@@ -2267,7 +2393,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>14221</v>
+        <v>14455</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -2348,6 +2474,9 @@
           <t>Carre</t>
         </is>
       </c>
+      <c r="AP16" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ16" t="n">
         <v>1</v>
       </c>
@@ -2361,6 +2490,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT16" t="n">
+        <v>1</v>
+      </c>
       <c r="AU16" t="n">
         <v>1</v>
       </c>
@@ -2373,6 +2505,9 @@
         <is>
           <t>1.5 X 1.5</t>
         </is>
+      </c>
+      <c r="AX16" t="n">
+        <v>1</v>
       </c>
       <c r="AY16" t="n">
         <v>1</v>
@@ -2380,7 +2515,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>14222</v>
+        <v>14456</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -2461,6 +2596,9 @@
           <t>Carre</t>
         </is>
       </c>
+      <c r="AP17" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ17" t="n">
         <v>1</v>
       </c>
@@ -2474,6 +2612,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT17" t="n">
+        <v>1</v>
+      </c>
       <c r="AU17" t="n">
         <v>1</v>
       </c>
@@ -2486,6 +2627,9 @@
         <is>
           <t>1.75 X 1.75</t>
         </is>
+      </c>
+      <c r="AX17" t="n">
+        <v>1</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
@@ -2493,7 +2637,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>14223</v>
+        <v>14457</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -2574,6 +2718,9 @@
           <t>Carre</t>
         </is>
       </c>
+      <c r="AP18" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ18" t="n">
         <v>1</v>
       </c>
@@ -2587,6 +2734,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT18" t="n">
+        <v>1</v>
+      </c>
       <c r="AU18" t="n">
         <v>1</v>
       </c>
@@ -2599,6 +2749,9 @@
         <is>
           <t>2 X  2</t>
         </is>
+      </c>
+      <c r="AX18" t="n">
+        <v>1</v>
       </c>
       <c r="AY18" t="n">
         <v>1</v>
@@ -2606,7 +2759,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>14224</v>
+        <v>14458</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -2687,6 +2840,9 @@
           <t>Carre</t>
         </is>
       </c>
+      <c r="AP19" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ19" t="n">
         <v>1</v>
       </c>
@@ -2700,6 +2856,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT19" t="n">
+        <v>1</v>
+      </c>
       <c r="AU19" t="n">
         <v>1</v>
       </c>
@@ -2712,6 +2871,9 @@
         <is>
           <t>2.5 X 2.5</t>
         </is>
+      </c>
+      <c r="AX19" t="n">
+        <v>1</v>
       </c>
       <c r="AY19" t="n">
         <v>1</v>
@@ -2719,7 +2881,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>14225</v>
+        <v>14459</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -2800,6 +2962,9 @@
           <t>Carre</t>
         </is>
       </c>
+      <c r="AP20" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ20" t="n">
         <v>1</v>
       </c>
@@ -2813,6 +2978,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT20" t="n">
+        <v>1</v>
+      </c>
       <c r="AU20" t="n">
         <v>1</v>
       </c>
@@ -2825,6 +2993,9 @@
         <is>
           <t>3 X  3</t>
         </is>
+      </c>
+      <c r="AX20" t="n">
+        <v>1</v>
       </c>
       <c r="AY20" t="n">
         <v>1</v>
@@ -2832,7 +3003,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>14226</v>
+        <v>14460</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -2913,6 +3084,9 @@
           <t>Carre</t>
         </is>
       </c>
+      <c r="AP21" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ21" t="n">
         <v>1</v>
       </c>
@@ -2926,6 +3100,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT21" t="n">
+        <v>1</v>
+      </c>
       <c r="AU21" t="n">
         <v>1</v>
       </c>
@@ -2938,6 +3115,9 @@
         <is>
           <t>4 X  4</t>
         </is>
+      </c>
+      <c r="AX21" t="n">
+        <v>1</v>
       </c>
       <c r="AY21" t="n">
         <v>1</v>
@@ -2945,7 +3125,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>14227</v>
+        <v>14461</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -3026,6 +3206,9 @@
           <t>Carre</t>
         </is>
       </c>
+      <c r="AP22" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ22" t="n">
         <v>1</v>
       </c>
@@ -3039,6 +3222,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT22" t="n">
+        <v>1</v>
+      </c>
       <c r="AU22" t="n">
         <v>1</v>
       </c>
@@ -3051,6 +3237,9 @@
         <is>
           <t>5 X  5</t>
         </is>
+      </c>
+      <c r="AX22" t="n">
+        <v>1</v>
       </c>
       <c r="AY22" t="n">
         <v>1</v>
@@ -3058,7 +3247,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>14228</v>
+        <v>14462</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -3139,6 +3328,9 @@
           <t>Carre</t>
         </is>
       </c>
+      <c r="AP23" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ23" t="n">
         <v>1</v>
       </c>
@@ -3152,6 +3344,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT23" t="n">
+        <v>1</v>
+      </c>
       <c r="AU23" t="n">
         <v>1</v>
       </c>
@@ -3164,6 +3359,9 @@
         <is>
           <t>6 X  6</t>
         </is>
+      </c>
+      <c r="AX23" t="n">
+        <v>1</v>
       </c>
       <c r="AY23" t="n">
         <v>1</v>
@@ -3171,7 +3369,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>14229</v>
+        <v>14463</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -3252,6 +3450,9 @@
           <t>Carre</t>
         </is>
       </c>
+      <c r="AP24" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ24" t="n">
         <v>1</v>
       </c>
@@ -3265,6 +3466,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT24" t="n">
+        <v>1</v>
+      </c>
       <c r="AU24" t="n">
         <v>1</v>
       </c>
@@ -3277,6 +3481,9 @@
         <is>
           <t>7 X  7</t>
         </is>
+      </c>
+      <c r="AX24" t="n">
+        <v>1</v>
       </c>
       <c r="AY24" t="n">
         <v>1</v>
@@ -3284,7 +3491,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>14230</v>
+        <v>14464</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -3365,6 +3572,9 @@
           <t>Carre</t>
         </is>
       </c>
+      <c r="AP25" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ25" t="n">
         <v>1</v>
       </c>
@@ -3378,6 +3588,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT25" t="n">
+        <v>1</v>
+      </c>
       <c r="AU25" t="n">
         <v>1</v>
       </c>
@@ -3390,6 +3603,9 @@
         <is>
           <t>8 X  8</t>
         </is>
+      </c>
+      <c r="AX25" t="n">
+        <v>1</v>
       </c>
       <c r="AY25" t="n">
         <v>1</v>
@@ -3397,7 +3613,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>14231</v>
+        <v>14465</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -3478,6 +3694,9 @@
           <t>Carre</t>
         </is>
       </c>
+      <c r="AP26" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ26" t="n">
         <v>1</v>
       </c>
@@ -3491,6 +3710,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT26" t="n">
+        <v>1</v>
+      </c>
       <c r="AU26" t="n">
         <v>1</v>
       </c>
@@ -3503,6 +3725,9 @@
         <is>
           <t>9 X  9</t>
         </is>
+      </c>
+      <c r="AX26" t="n">
+        <v>1</v>
       </c>
       <c r="AY26" t="n">
         <v>1</v>
@@ -3510,7 +3735,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>14232</v>
+        <v>14466</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -3591,6 +3816,9 @@
           <t>Carre</t>
         </is>
       </c>
+      <c r="AP27" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ27" t="n">
         <v>1</v>
       </c>
@@ -3604,6 +3832,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT27" t="n">
+        <v>1</v>
+      </c>
       <c r="AU27" t="n">
         <v>1</v>
       </c>
@@ -3616,6 +3847,9 @@
         <is>
           <t>10 X 10</t>
         </is>
+      </c>
+      <c r="AX27" t="n">
+        <v>1</v>
       </c>
       <c r="AY27" t="n">
         <v>1</v>
@@ -3623,7 +3857,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>14233</v>
+        <v>14467</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -3704,6 +3938,9 @@
           <t>Carre</t>
         </is>
       </c>
+      <c r="AP28" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ28" t="n">
         <v>1</v>
       </c>
@@ -3717,6 +3954,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT28" t="n">
+        <v>1</v>
+      </c>
       <c r="AU28" t="n">
         <v>1</v>
       </c>
@@ -3729,6 +3969,9 @@
         <is>
           <t>11 X 11</t>
         </is>
+      </c>
+      <c r="AX28" t="n">
+        <v>1</v>
       </c>
       <c r="AY28" t="n">
         <v>1</v>
@@ -3736,7 +3979,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>14234</v>
+        <v>14468</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -3817,6 +4060,9 @@
           <t>Carre</t>
         </is>
       </c>
+      <c r="AP29" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ29" t="n">
         <v>1</v>
       </c>
@@ -3830,6 +4076,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT29" t="n">
+        <v>1</v>
+      </c>
       <c r="AU29" t="n">
         <v>1</v>
       </c>
@@ -3842,6 +4091,9 @@
         <is>
           <t>12 X 12</t>
         </is>
+      </c>
+      <c r="AX29" t="n">
+        <v>1</v>
       </c>
       <c r="AY29" t="n">
         <v>1</v>
@@ -3849,7 +4101,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>14235</v>
+        <v>14469</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -3930,6 +4182,9 @@
           <t>Carre Extra</t>
         </is>
       </c>
+      <c r="AP30" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ30" t="n">
         <v>1</v>
       </c>
@@ -3943,6 +4198,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT30" t="n">
+        <v>1</v>
+      </c>
       <c r="AU30" t="n">
         <v>1</v>
       </c>
@@ -3955,6 +4213,9 @@
         <is>
           <t>2 X  2 EX</t>
         </is>
+      </c>
+      <c r="AX30" t="n">
+        <v>1</v>
       </c>
       <c r="AY30" t="n">
         <v>1</v>
@@ -3962,7 +4223,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>14236</v>
+        <v>14470</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -4043,6 +4304,9 @@
           <t>Coração</t>
         </is>
       </c>
+      <c r="AP31" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ31" t="n">
         <v>1</v>
       </c>
@@ -4056,6 +4320,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT31" t="n">
+        <v>1</v>
+      </c>
       <c r="AU31" t="n">
         <v>1</v>
       </c>
@@ -4068,6 +4335,9 @@
         <is>
           <t>3 X  3</t>
         </is>
+      </c>
+      <c r="AX31" t="n">
+        <v>1</v>
       </c>
       <c r="AY31" t="n">
         <v>1</v>
@@ -4075,7 +4345,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>14237</v>
+        <v>14471</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -4156,6 +4426,9 @@
           <t>Coração</t>
         </is>
       </c>
+      <c r="AP32" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ32" t="n">
         <v>1</v>
       </c>
@@ -4169,6 +4442,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT32" t="n">
+        <v>1</v>
+      </c>
       <c r="AU32" t="n">
         <v>1</v>
       </c>
@@ -4181,6 +4457,9 @@
         <is>
           <t>4 X  4</t>
         </is>
+      </c>
+      <c r="AX32" t="n">
+        <v>1</v>
       </c>
       <c r="AY32" t="n">
         <v>1</v>
@@ -4188,7 +4467,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>14238</v>
+        <v>14472</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -4269,6 +4548,9 @@
           <t>Coração</t>
         </is>
       </c>
+      <c r="AP33" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ33" t="n">
         <v>1</v>
       </c>
@@ -4282,6 +4564,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT33" t="n">
+        <v>1</v>
+      </c>
       <c r="AU33" t="n">
         <v>1</v>
       </c>
@@ -4294,6 +4579,9 @@
         <is>
           <t>5 X  5</t>
         </is>
+      </c>
+      <c r="AX33" t="n">
+        <v>1</v>
       </c>
       <c r="AY33" t="n">
         <v>1</v>
@@ -4301,7 +4589,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>14239</v>
+        <v>14473</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -4382,6 +4670,9 @@
           <t>Coração</t>
         </is>
       </c>
+      <c r="AP34" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ34" t="n">
         <v>1</v>
       </c>
@@ -4395,6 +4686,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT34" t="n">
+        <v>1</v>
+      </c>
       <c r="AU34" t="n">
         <v>1</v>
       </c>
@@ -4407,6 +4701,9 @@
         <is>
           <t>5.5X5.5</t>
         </is>
+      </c>
+      <c r="AX34" t="n">
+        <v>1</v>
       </c>
       <c r="AY34" t="n">
         <v>1</v>
@@ -4414,7 +4711,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>14240</v>
+        <v>14474</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -4495,6 +4792,9 @@
           <t>Coração</t>
         </is>
       </c>
+      <c r="AP35" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ35" t="n">
         <v>1</v>
       </c>
@@ -4508,6 +4808,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT35" t="n">
+        <v>1</v>
+      </c>
       <c r="AU35" t="n">
         <v>1</v>
       </c>
@@ -4520,6 +4823,9 @@
         <is>
           <t>6 X  6</t>
         </is>
+      </c>
+      <c r="AX35" t="n">
+        <v>1</v>
       </c>
       <c r="AY35" t="n">
         <v>1</v>
@@ -4527,7 +4833,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>14241</v>
+        <v>14475</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -4608,6 +4914,9 @@
           <t>Coração</t>
         </is>
       </c>
+      <c r="AP36" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ36" t="n">
         <v>1</v>
       </c>
@@ -4621,6 +4930,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT36" t="n">
+        <v>1</v>
+      </c>
       <c r="AU36" t="n">
         <v>1</v>
       </c>
@@ -4633,6 +4945,9 @@
         <is>
           <t>6.5X6.5</t>
         </is>
+      </c>
+      <c r="AX36" t="n">
+        <v>1</v>
       </c>
       <c r="AY36" t="n">
         <v>1</v>
@@ -4640,7 +4955,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>14242</v>
+        <v>14476</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -4721,6 +5036,9 @@
           <t>Coração</t>
         </is>
       </c>
+      <c r="AP37" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ37" t="n">
         <v>1</v>
       </c>
@@ -4734,6 +5052,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT37" t="n">
+        <v>1</v>
+      </c>
       <c r="AU37" t="n">
         <v>1</v>
       </c>
@@ -4746,6 +5067,9 @@
         <is>
           <t>7 X  7</t>
         </is>
+      </c>
+      <c r="AX37" t="n">
+        <v>1</v>
       </c>
       <c r="AY37" t="n">
         <v>1</v>
@@ -4753,7 +5077,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>14243</v>
+        <v>14477</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -4834,6 +5158,9 @@
           <t>Coração</t>
         </is>
       </c>
+      <c r="AP38" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ38" t="n">
         <v>1</v>
       </c>
@@ -4847,6 +5174,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT38" t="n">
+        <v>1</v>
+      </c>
       <c r="AU38" t="n">
         <v>1</v>
       </c>
@@ -4859,6 +5189,9 @@
         <is>
           <t>8 X  8</t>
         </is>
+      </c>
+      <c r="AX38" t="n">
+        <v>1</v>
       </c>
       <c r="AY38" t="n">
         <v>1</v>
@@ -4866,7 +5199,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>14244</v>
+        <v>14478</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -4947,6 +5280,9 @@
           <t>Coração</t>
         </is>
       </c>
+      <c r="AP39" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ39" t="n">
         <v>1</v>
       </c>
@@ -4960,6 +5296,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT39" t="n">
+        <v>1</v>
+      </c>
       <c r="AU39" t="n">
         <v>1</v>
       </c>
@@ -4972,6 +5311,9 @@
         <is>
           <t>9 X  9</t>
         </is>
+      </c>
+      <c r="AX39" t="n">
+        <v>1</v>
       </c>
       <c r="AY39" t="n">
         <v>1</v>
@@ -4979,7 +5321,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>14245</v>
+        <v>14479</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -5060,6 +5402,9 @@
           <t>Coração</t>
         </is>
       </c>
+      <c r="AP40" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ40" t="n">
         <v>1</v>
       </c>
@@ -5073,6 +5418,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT40" t="n">
+        <v>1</v>
+      </c>
       <c r="AU40" t="n">
         <v>1</v>
       </c>
@@ -5085,6 +5433,9 @@
         <is>
           <t>10 X 10</t>
         </is>
+      </c>
+      <c r="AX40" t="n">
+        <v>1</v>
       </c>
       <c r="AY40" t="n">
         <v>1</v>
@@ -5092,7 +5443,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>14246</v>
+        <v>14480</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -5173,6 +5524,9 @@
           <t>Coração</t>
         </is>
       </c>
+      <c r="AP41" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ41" t="n">
         <v>1</v>
       </c>
@@ -5186,6 +5540,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT41" t="n">
+        <v>1</v>
+      </c>
       <c r="AU41" t="n">
         <v>1</v>
       </c>
@@ -5198,6 +5555,9 @@
         <is>
           <t>11 X 11</t>
         </is>
+      </c>
+      <c r="AX41" t="n">
+        <v>1</v>
       </c>
       <c r="AY41" t="n">
         <v>1</v>
@@ -5205,7 +5565,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>14247</v>
+        <v>14481</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -5286,6 +5646,9 @@
           <t>Coração</t>
         </is>
       </c>
+      <c r="AP42" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ42" t="n">
         <v>1</v>
       </c>
@@ -5299,6 +5662,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT42" t="n">
+        <v>1</v>
+      </c>
       <c r="AU42" t="n">
         <v>1</v>
       </c>
@@ -5311,6 +5677,9 @@
         <is>
           <t>12 X 12</t>
         </is>
+      </c>
+      <c r="AX42" t="n">
+        <v>1</v>
       </c>
       <c r="AY42" t="n">
         <v>1</v>
@@ -5318,7 +5687,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>14248</v>
+        <v>14482</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -5399,6 +5768,9 @@
           <t>Gota</t>
         </is>
       </c>
+      <c r="AP43" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ43" t="n">
         <v>1</v>
       </c>
@@ -5412,6 +5784,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT43" t="n">
+        <v>1</v>
+      </c>
       <c r="AU43" t="n">
         <v>1</v>
       </c>
@@ -5424,6 +5799,9 @@
         <is>
           <t>2 X  3</t>
         </is>
+      </c>
+      <c r="AX43" t="n">
+        <v>1</v>
       </c>
       <c r="AY43" t="n">
         <v>1</v>
@@ -5431,7 +5809,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>14249</v>
+        <v>14483</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -5512,6 +5890,9 @@
           <t>Gota</t>
         </is>
       </c>
+      <c r="AP44" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ44" t="n">
         <v>1</v>
       </c>
@@ -5525,6 +5906,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT44" t="n">
+        <v>1</v>
+      </c>
       <c r="AU44" t="n">
         <v>1</v>
       </c>
@@ -5537,6 +5921,9 @@
         <is>
           <t>3 X  4</t>
         </is>
+      </c>
+      <c r="AX44" t="n">
+        <v>1</v>
       </c>
       <c r="AY44" t="n">
         <v>1</v>
@@ -5544,7 +5931,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>14250</v>
+        <v>14484</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -5625,6 +6012,9 @@
           <t>Gota</t>
         </is>
       </c>
+      <c r="AP45" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ45" t="n">
         <v>1</v>
       </c>
@@ -5638,6 +6028,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT45" t="n">
+        <v>1</v>
+      </c>
       <c r="AU45" t="n">
         <v>1</v>
       </c>
@@ -5650,6 +6043,9 @@
         <is>
           <t>3 X  5</t>
         </is>
+      </c>
+      <c r="AX45" t="n">
+        <v>1</v>
       </c>
       <c r="AY45" t="n">
         <v>1</v>
@@ -5657,7 +6053,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>14251</v>
+        <v>14485</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -5738,6 +6134,9 @@
           <t>Gota</t>
         </is>
       </c>
+      <c r="AP46" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ46" t="n">
         <v>1</v>
       </c>
@@ -5751,6 +6150,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT46" t="n">
+        <v>1</v>
+      </c>
       <c r="AU46" t="n">
         <v>1</v>
       </c>
@@ -5763,6 +6165,9 @@
         <is>
           <t>4 X  6</t>
         </is>
+      </c>
+      <c r="AX46" t="n">
+        <v>1</v>
       </c>
       <c r="AY46" t="n">
         <v>1</v>
@@ -5770,7 +6175,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>14252</v>
+        <v>14486</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -5851,6 +6256,9 @@
           <t>Gota</t>
         </is>
       </c>
+      <c r="AP47" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ47" t="n">
         <v>1</v>
       </c>
@@ -5864,6 +6272,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT47" t="n">
+        <v>1</v>
+      </c>
       <c r="AU47" t="n">
         <v>1</v>
       </c>
@@ -5876,6 +6287,9 @@
         <is>
           <t>5 X  7</t>
         </is>
+      </c>
+      <c r="AX47" t="n">
+        <v>1</v>
       </c>
       <c r="AY47" t="n">
         <v>1</v>
@@ -5883,7 +6297,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>14253</v>
+        <v>14487</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -5964,6 +6378,9 @@
           <t>Gota</t>
         </is>
       </c>
+      <c r="AP48" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ48" t="n">
         <v>1</v>
       </c>
@@ -5977,6 +6394,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT48" t="n">
+        <v>1</v>
+      </c>
       <c r="AU48" t="n">
         <v>1</v>
       </c>
@@ -5989,6 +6409,9 @@
         <is>
           <t>5 X  8</t>
         </is>
+      </c>
+      <c r="AX48" t="n">
+        <v>1</v>
       </c>
       <c r="AY48" t="n">
         <v>1</v>
@@ -5996,7 +6419,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>14254</v>
+        <v>14488</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -6077,6 +6500,9 @@
           <t>Gota</t>
         </is>
       </c>
+      <c r="AP49" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ49" t="n">
         <v>1</v>
       </c>
@@ -6090,6 +6516,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT49" t="n">
+        <v>1</v>
+      </c>
       <c r="AU49" t="n">
         <v>1</v>
       </c>
@@ -6102,6 +6531,9 @@
         <is>
           <t>6 X  8</t>
         </is>
+      </c>
+      <c r="AX49" t="n">
+        <v>1</v>
       </c>
       <c r="AY49" t="n">
         <v>1</v>
@@ -6109,7 +6541,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>14255</v>
+        <v>14489</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -6190,6 +6622,9 @@
           <t>Gota</t>
         </is>
       </c>
+      <c r="AP50" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ50" t="n">
         <v>1</v>
       </c>
@@ -6203,6 +6638,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT50" t="n">
+        <v>1</v>
+      </c>
       <c r="AU50" t="n">
         <v>1</v>
       </c>
@@ -6215,6 +6653,9 @@
         <is>
           <t>6 X  9</t>
         </is>
+      </c>
+      <c r="AX50" t="n">
+        <v>1</v>
       </c>
       <c r="AY50" t="n">
         <v>1</v>
@@ -6222,7 +6663,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>14256</v>
+        <v>14490</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -6303,6 +6744,9 @@
           <t>Gota</t>
         </is>
       </c>
+      <c r="AP51" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ51" t="n">
         <v>1</v>
       </c>
@@ -6316,6 +6760,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT51" t="n">
+        <v>1</v>
+      </c>
       <c r="AU51" t="n">
         <v>1</v>
       </c>
@@ -6328,6 +6775,9 @@
         <is>
           <t>7 X  9</t>
         </is>
+      </c>
+      <c r="AX51" t="n">
+        <v>1</v>
       </c>
       <c r="AY51" t="n">
         <v>1</v>
@@ -6335,7 +6785,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>14257</v>
+        <v>14491</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -6416,6 +6866,9 @@
           <t>Gota</t>
         </is>
       </c>
+      <c r="AP52" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ52" t="n">
         <v>1</v>
       </c>
@@ -6429,6 +6882,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT52" t="n">
+        <v>1</v>
+      </c>
       <c r="AU52" t="n">
         <v>1</v>
       </c>
@@ -6441,6 +6897,9 @@
         <is>
           <t>7 X 10</t>
         </is>
+      </c>
+      <c r="AX52" t="n">
+        <v>1</v>
       </c>
       <c r="AY52" t="n">
         <v>1</v>
@@ -6448,7 +6907,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>14258</v>
+        <v>14492</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -6529,6 +6988,9 @@
           <t>Gota</t>
         </is>
       </c>
+      <c r="AP53" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ53" t="n">
         <v>1</v>
       </c>
@@ -6542,6 +7004,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT53" t="n">
+        <v>1</v>
+      </c>
       <c r="AU53" t="n">
         <v>1</v>
       </c>
@@ -6554,6 +7019,9 @@
         <is>
           <t>8 X 12</t>
         </is>
+      </c>
+      <c r="AX53" t="n">
+        <v>1</v>
       </c>
       <c r="AY53" t="n">
         <v>1</v>
@@ -6561,7 +7029,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>14259</v>
+        <v>14493</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -6642,6 +7110,9 @@
           <t>Gota</t>
         </is>
       </c>
+      <c r="AP54" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ54" t="n">
         <v>1</v>
       </c>
@@ -6655,6 +7126,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT54" t="n">
+        <v>1</v>
+      </c>
       <c r="AU54" t="n">
         <v>1</v>
       </c>
@@ -6667,6 +7141,9 @@
         <is>
           <t>9 X 13</t>
         </is>
+      </c>
+      <c r="AX54" t="n">
+        <v>1</v>
       </c>
       <c r="AY54" t="n">
         <v>1</v>
@@ -6674,7 +7151,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>14260</v>
+        <v>14494</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -6755,6 +7232,9 @@
           <t>Gota</t>
         </is>
       </c>
+      <c r="AP55" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ55" t="n">
         <v>1</v>
       </c>
@@ -6768,6 +7248,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT55" t="n">
+        <v>1</v>
+      </c>
       <c r="AU55" t="n">
         <v>1</v>
       </c>
@@ -6780,6 +7263,9 @@
         <is>
           <t>10 X 14</t>
         </is>
+      </c>
+      <c r="AX55" t="n">
+        <v>1</v>
       </c>
       <c r="AY55" t="n">
         <v>1</v>
@@ -6787,7 +7273,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>14261</v>
+        <v>14495</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -6868,6 +7354,9 @@
           <t>Gota</t>
         </is>
       </c>
+      <c r="AP56" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ56" t="n">
         <v>1</v>
       </c>
@@ -6881,6 +7370,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT56" t="n">
+        <v>1</v>
+      </c>
       <c r="AU56" t="n">
         <v>1</v>
       </c>
@@ -6893,6 +7385,9 @@
         <is>
           <t>12 X 16</t>
         </is>
+      </c>
+      <c r="AX56" t="n">
+        <v>1</v>
       </c>
       <c r="AY56" t="n">
         <v>1</v>
@@ -6900,7 +7395,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>14262</v>
+        <v>14496</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -6981,6 +7476,9 @@
           <t>Gota</t>
         </is>
       </c>
+      <c r="AP57" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ57" t="n">
         <v>1</v>
       </c>
@@ -6994,6 +7492,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT57" t="n">
+        <v>1</v>
+      </c>
       <c r="AU57" t="n">
         <v>1</v>
       </c>
@@ -7006,6 +7507,9 @@
         <is>
           <t>13 X 18</t>
         </is>
+      </c>
+      <c r="AX57" t="n">
+        <v>1</v>
       </c>
       <c r="AY57" t="n">
         <v>1</v>
@@ -7013,7 +7517,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>14263</v>
+        <v>14497</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -7094,6 +7598,9 @@
           <t>Navete</t>
         </is>
       </c>
+      <c r="AP58" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ58" t="n">
         <v>1</v>
       </c>
@@ -7107,6 +7614,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT58" t="n">
+        <v>1</v>
+      </c>
       <c r="AU58" t="n">
         <v>1</v>
       </c>
@@ -7119,6 +7629,9 @@
         <is>
           <t>1.5 X  3</t>
         </is>
+      </c>
+      <c r="AX58" t="n">
+        <v>1</v>
       </c>
       <c r="AY58" t="n">
         <v>1</v>
@@ -7126,7 +7639,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>14264</v>
+        <v>14498</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -7207,6 +7720,9 @@
           <t>Navete</t>
         </is>
       </c>
+      <c r="AP59" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ59" t="n">
         <v>1</v>
       </c>
@@ -7220,6 +7736,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT59" t="n">
+        <v>1</v>
+      </c>
       <c r="AU59" t="n">
         <v>1</v>
       </c>
@@ -7232,6 +7751,9 @@
         <is>
           <t>2 X  4</t>
         </is>
+      </c>
+      <c r="AX59" t="n">
+        <v>1</v>
       </c>
       <c r="AY59" t="n">
         <v>1</v>
@@ -7239,7 +7761,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>14265</v>
+        <v>14499</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -7320,6 +7842,9 @@
           <t>Navete</t>
         </is>
       </c>
+      <c r="AP60" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ60" t="n">
         <v>1</v>
       </c>
@@ -7333,6 +7858,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT60" t="n">
+        <v>1</v>
+      </c>
       <c r="AU60" t="n">
         <v>1</v>
       </c>
@@ -7345,6 +7873,9 @@
         <is>
           <t>2.5 X 5</t>
         </is>
+      </c>
+      <c r="AX60" t="n">
+        <v>1</v>
       </c>
       <c r="AY60" t="n">
         <v>1</v>
@@ -7352,7 +7883,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>14266</v>
+        <v>14500</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -7433,6 +7964,9 @@
           <t>Navete</t>
         </is>
       </c>
+      <c r="AP61" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ61" t="n">
         <v>1</v>
       </c>
@@ -7446,6 +7980,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT61" t="n">
+        <v>1</v>
+      </c>
       <c r="AU61" t="n">
         <v>1</v>
       </c>
@@ -7458,6 +7995,9 @@
         <is>
           <t>3 X  6</t>
         </is>
+      </c>
+      <c r="AX61" t="n">
+        <v>1</v>
       </c>
       <c r="AY61" t="n">
         <v>1</v>
@@ -7465,7 +8005,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>14267</v>
+        <v>14501</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -7546,6 +8086,9 @@
           <t>Navete</t>
         </is>
       </c>
+      <c r="AP62" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ62" t="n">
         <v>1</v>
       </c>
@@ -7559,6 +8102,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT62" t="n">
+        <v>1</v>
+      </c>
       <c r="AU62" t="n">
         <v>1</v>
       </c>
@@ -7571,6 +8117,9 @@
         <is>
           <t>4 X  8</t>
         </is>
+      </c>
+      <c r="AX62" t="n">
+        <v>1</v>
       </c>
       <c r="AY62" t="n">
         <v>1</v>
@@ -7578,7 +8127,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>14268</v>
+        <v>14502</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -7659,6 +8208,9 @@
           <t>Navete</t>
         </is>
       </c>
+      <c r="AP63" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ63" t="n">
         <v>1</v>
       </c>
@@ -7672,6 +8224,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT63" t="n">
+        <v>1</v>
+      </c>
       <c r="AU63" t="n">
         <v>1</v>
       </c>
@@ -7684,6 +8239,9 @@
         <is>
           <t>5 X 10</t>
         </is>
+      </c>
+      <c r="AX63" t="n">
+        <v>1</v>
       </c>
       <c r="AY63" t="n">
         <v>1</v>
@@ -7691,7 +8249,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>14269</v>
+        <v>14503</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -7772,6 +8330,9 @@
           <t>Navete</t>
         </is>
       </c>
+      <c r="AP64" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ64" t="n">
         <v>1</v>
       </c>
@@ -7785,6 +8346,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT64" t="n">
+        <v>1</v>
+      </c>
       <c r="AU64" t="n">
         <v>1</v>
       </c>
@@ -7797,6 +8361,9 @@
         <is>
           <t>6 X 12</t>
         </is>
+      </c>
+      <c r="AX64" t="n">
+        <v>1</v>
       </c>
       <c r="AY64" t="n">
         <v>1</v>
@@ -7804,7 +8371,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>14270</v>
+        <v>14504</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -7885,6 +8452,9 @@
           <t>Navete</t>
         </is>
       </c>
+      <c r="AP65" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ65" t="n">
         <v>1</v>
       </c>
@@ -7898,6 +8468,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT65" t="n">
+        <v>1</v>
+      </c>
       <c r="AU65" t="n">
         <v>1</v>
       </c>
@@ -7910,6 +8483,9 @@
         <is>
           <t>7 X 14</t>
         </is>
+      </c>
+      <c r="AX65" t="n">
+        <v>1</v>
       </c>
       <c r="AY65" t="n">
         <v>1</v>
@@ -7917,7 +8493,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>14271</v>
+        <v>14505</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -7998,6 +8574,9 @@
           <t>Navete</t>
         </is>
       </c>
+      <c r="AP66" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ66" t="n">
         <v>1</v>
       </c>
@@ -8011,6 +8590,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT66" t="n">
+        <v>1</v>
+      </c>
       <c r="AU66" t="n">
         <v>1</v>
       </c>
@@ -8023,6 +8605,9 @@
         <is>
           <t>7 X 15</t>
         </is>
+      </c>
+      <c r="AX66" t="n">
+        <v>1</v>
       </c>
       <c r="AY66" t="n">
         <v>1</v>
@@ -8030,7 +8615,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>14272</v>
+        <v>14506</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -8111,6 +8696,9 @@
           <t>Octogonal</t>
         </is>
       </c>
+      <c r="AP67" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ67" t="n">
         <v>1</v>
       </c>
@@ -8124,6 +8712,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT67" t="n">
+        <v>1</v>
+      </c>
       <c r="AU67" t="n">
         <v>1</v>
       </c>
@@ -8136,6 +8727,9 @@
         <is>
           <t>3 X  5</t>
         </is>
+      </c>
+      <c r="AX67" t="n">
+        <v>1</v>
       </c>
       <c r="AY67" t="n">
         <v>1</v>
@@ -8143,7 +8737,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>14273</v>
+        <v>14507</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -8224,6 +8818,9 @@
           <t>Octogonal</t>
         </is>
       </c>
+      <c r="AP68" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ68" t="n">
         <v>1</v>
       </c>
@@ -8237,6 +8834,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT68" t="n">
+        <v>1</v>
+      </c>
       <c r="AU68" t="n">
         <v>1</v>
       </c>
@@ -8249,6 +8849,9 @@
         <is>
           <t>4 X  6</t>
         </is>
+      </c>
+      <c r="AX68" t="n">
+        <v>1</v>
       </c>
       <c r="AY68" t="n">
         <v>1</v>
@@ -8256,7 +8859,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>14274</v>
+        <v>14508</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -8337,6 +8940,9 @@
           <t>Octogonal</t>
         </is>
       </c>
+      <c r="AP69" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ69" t="n">
         <v>1</v>
       </c>
@@ -8350,6 +8956,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT69" t="n">
+        <v>1</v>
+      </c>
       <c r="AU69" t="n">
         <v>1</v>
       </c>
@@ -8362,6 +8971,9 @@
         <is>
           <t>5 X  7</t>
         </is>
+      </c>
+      <c r="AX69" t="n">
+        <v>1</v>
       </c>
       <c r="AY69" t="n">
         <v>1</v>
@@ -8369,7 +8981,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>14275</v>
+        <v>14509</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -8450,6 +9062,9 @@
           <t>Octogonal</t>
         </is>
       </c>
+      <c r="AP70" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ70" t="n">
         <v>1</v>
       </c>
@@ -8463,6 +9078,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT70" t="n">
+        <v>1</v>
+      </c>
       <c r="AU70" t="n">
         <v>1</v>
       </c>
@@ -8475,6 +9093,9 @@
         <is>
           <t>6 X  8</t>
         </is>
+      </c>
+      <c r="AX70" t="n">
+        <v>1</v>
       </c>
       <c r="AY70" t="n">
         <v>1</v>
@@ -8482,7 +9103,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>14276</v>
+        <v>14510</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -8563,6 +9184,9 @@
           <t>Octogonal</t>
         </is>
       </c>
+      <c r="AP71" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ71" t="n">
         <v>1</v>
       </c>
@@ -8576,6 +9200,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT71" t="n">
+        <v>1</v>
+      </c>
       <c r="AU71" t="n">
         <v>1</v>
       </c>
@@ -8588,6 +9215,9 @@
         <is>
           <t>7 X  9</t>
         </is>
+      </c>
+      <c r="AX71" t="n">
+        <v>1</v>
       </c>
       <c r="AY71" t="n">
         <v>1</v>
@@ -8595,7 +9225,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>14277</v>
+        <v>14511</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -8676,6 +9306,9 @@
           <t>Octogonal</t>
         </is>
       </c>
+      <c r="AP72" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ72" t="n">
         <v>1</v>
       </c>
@@ -8689,6 +9322,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT72" t="n">
+        <v>1</v>
+      </c>
       <c r="AU72" t="n">
         <v>1</v>
       </c>
@@ -8701,6 +9337,9 @@
         <is>
           <t>8 X 10</t>
         </is>
+      </c>
+      <c r="AX72" t="n">
+        <v>1</v>
       </c>
       <c r="AY72" t="n">
         <v>1</v>
@@ -8708,7 +9347,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>14278</v>
+        <v>14512</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -8789,6 +9428,9 @@
           <t>Octogonal</t>
         </is>
       </c>
+      <c r="AP73" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ73" t="n">
         <v>1</v>
       </c>
@@ -8802,6 +9444,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT73" t="n">
+        <v>1</v>
+      </c>
       <c r="AU73" t="n">
         <v>1</v>
       </c>
@@ -8814,6 +9459,9 @@
         <is>
           <t>9 X 11</t>
         </is>
+      </c>
+      <c r="AX73" t="n">
+        <v>1</v>
       </c>
       <c r="AY73" t="n">
         <v>1</v>
@@ -8821,7 +9469,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>14279</v>
+        <v>14513</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -8902,6 +9550,9 @@
           <t>Octogonal</t>
         </is>
       </c>
+      <c r="AP74" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ74" t="n">
         <v>1</v>
       </c>
@@ -8915,6 +9566,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT74" t="n">
+        <v>1</v>
+      </c>
       <c r="AU74" t="n">
         <v>1</v>
       </c>
@@ -8927,6 +9581,9 @@
         <is>
           <t>10 X 12</t>
         </is>
+      </c>
+      <c r="AX74" t="n">
+        <v>1</v>
       </c>
       <c r="AY74" t="n">
         <v>1</v>
@@ -8934,7 +9591,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>14280</v>
+        <v>14514</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -9015,6 +9672,9 @@
           <t>Octogonal</t>
         </is>
       </c>
+      <c r="AP75" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ75" t="n">
         <v>1</v>
       </c>
@@ -9028,6 +9688,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT75" t="n">
+        <v>1</v>
+      </c>
       <c r="AU75" t="n">
         <v>1</v>
       </c>
@@ -9040,6 +9703,9 @@
         <is>
           <t>12 X 14</t>
         </is>
+      </c>
+      <c r="AX75" t="n">
+        <v>1</v>
       </c>
       <c r="AY75" t="n">
         <v>1</v>
@@ -9047,7 +9713,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>14281</v>
+        <v>14515</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -9128,6 +9794,9 @@
           <t>Octogonal</t>
         </is>
       </c>
+      <c r="AP76" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ76" t="n">
         <v>1</v>
       </c>
@@ -9141,6 +9810,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT76" t="n">
+        <v>1</v>
+      </c>
       <c r="AU76" t="n">
         <v>1</v>
       </c>
@@ -9153,6 +9825,9 @@
         <is>
           <t>12 X 16</t>
         </is>
+      </c>
+      <c r="AX76" t="n">
+        <v>1</v>
       </c>
       <c r="AY76" t="n">
         <v>1</v>
@@ -9160,7 +9835,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>14282</v>
+        <v>14516</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -9241,6 +9916,9 @@
           <t>Octogonal</t>
         </is>
       </c>
+      <c r="AP77" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ77" t="n">
         <v>1</v>
       </c>
@@ -9254,6 +9932,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT77" t="n">
+        <v>1</v>
+      </c>
       <c r="AU77" t="n">
         <v>1</v>
       </c>
@@ -9266,6 +9947,9 @@
         <is>
           <t>13 X 18</t>
         </is>
+      </c>
+      <c r="AX77" t="n">
+        <v>1</v>
       </c>
       <c r="AY77" t="n">
         <v>1</v>
@@ -9273,7 +9957,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>14283</v>
+        <v>14517</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -9354,6 +10038,9 @@
           <t>Oval</t>
         </is>
       </c>
+      <c r="AP78" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ78" t="n">
         <v>1</v>
       </c>
@@ -9367,6 +10054,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT78" t="n">
+        <v>1</v>
+      </c>
       <c r="AU78" t="n">
         <v>1</v>
       </c>
@@ -9379,6 +10069,9 @@
         <is>
           <t>3 X  5</t>
         </is>
+      </c>
+      <c r="AX78" t="n">
+        <v>1</v>
       </c>
       <c r="AY78" t="n">
         <v>1</v>
@@ -9386,7 +10079,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>14284</v>
+        <v>14518</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -9467,6 +10160,9 @@
           <t>Oval</t>
         </is>
       </c>
+      <c r="AP79" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ79" t="n">
         <v>1</v>
       </c>
@@ -9480,6 +10176,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT79" t="n">
+        <v>1</v>
+      </c>
       <c r="AU79" t="n">
         <v>1</v>
       </c>
@@ -9492,6 +10191,9 @@
         <is>
           <t>4 X  6</t>
         </is>
+      </c>
+      <c r="AX79" t="n">
+        <v>1</v>
       </c>
       <c r="AY79" t="n">
         <v>1</v>
@@ -9499,7 +10201,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>14285</v>
+        <v>14519</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -9580,6 +10282,9 @@
           <t>Oval</t>
         </is>
       </c>
+      <c r="AP80" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ80" t="n">
         <v>1</v>
       </c>
@@ -9593,6 +10298,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT80" t="n">
+        <v>1</v>
+      </c>
       <c r="AU80" t="n">
         <v>1</v>
       </c>
@@ -9605,6 +10313,9 @@
         <is>
           <t>5 X  7</t>
         </is>
+      </c>
+      <c r="AX80" t="n">
+        <v>1</v>
       </c>
       <c r="AY80" t="n">
         <v>1</v>
@@ -9612,7 +10323,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>14286</v>
+        <v>14520</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -9693,6 +10404,9 @@
           <t>Oval</t>
         </is>
       </c>
+      <c r="AP81" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ81" t="n">
         <v>1</v>
       </c>
@@ -9706,6 +10420,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT81" t="n">
+        <v>1</v>
+      </c>
       <c r="AU81" t="n">
         <v>1</v>
       </c>
@@ -9718,6 +10435,9 @@
         <is>
           <t>6 X  8</t>
         </is>
+      </c>
+      <c r="AX81" t="n">
+        <v>1</v>
       </c>
       <c r="AY81" t="n">
         <v>1</v>
@@ -9725,7 +10445,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>14287</v>
+        <v>14521</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -9806,6 +10526,9 @@
           <t>Oval</t>
         </is>
       </c>
+      <c r="AP82" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ82" t="n">
         <v>1</v>
       </c>
@@ -9819,6 +10542,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT82" t="n">
+        <v>1</v>
+      </c>
       <c r="AU82" t="n">
         <v>1</v>
       </c>
@@ -9831,6 +10557,9 @@
         <is>
           <t>7 X  9</t>
         </is>
+      </c>
+      <c r="AX82" t="n">
+        <v>1</v>
       </c>
       <c r="AY82" t="n">
         <v>1</v>
@@ -9838,7 +10567,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>14288</v>
+        <v>14522</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -9919,6 +10648,9 @@
           <t>Oval</t>
         </is>
       </c>
+      <c r="AP83" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ83" t="n">
         <v>1</v>
       </c>
@@ -9932,6 +10664,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT83" t="n">
+        <v>1</v>
+      </c>
       <c r="AU83" t="n">
         <v>1</v>
       </c>
@@ -9944,6 +10679,9 @@
         <is>
           <t>8 X 10</t>
         </is>
+      </c>
+      <c r="AX83" t="n">
+        <v>1</v>
       </c>
       <c r="AY83" t="n">
         <v>1</v>
@@ -9951,7 +10689,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>14289</v>
+        <v>14523</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -10032,6 +10770,9 @@
           <t>Oval</t>
         </is>
       </c>
+      <c r="AP84" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ84" t="n">
         <v>1</v>
       </c>
@@ -10045,6 +10786,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT84" t="n">
+        <v>1</v>
+      </c>
       <c r="AU84" t="n">
         <v>1</v>
       </c>
@@ -10057,6 +10801,9 @@
         <is>
           <t>9 X 11</t>
         </is>
+      </c>
+      <c r="AX84" t="n">
+        <v>1</v>
       </c>
       <c r="AY84" t="n">
         <v>1</v>
@@ -10064,7 +10811,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>14290</v>
+        <v>14524</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -10145,6 +10892,9 @@
           <t>Oval</t>
         </is>
       </c>
+      <c r="AP85" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ85" t="n">
         <v>1</v>
       </c>
@@ -10158,6 +10908,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT85" t="n">
+        <v>1</v>
+      </c>
       <c r="AU85" t="n">
         <v>1</v>
       </c>
@@ -10170,6 +10923,9 @@
         <is>
           <t>10 X 12</t>
         </is>
+      </c>
+      <c r="AX85" t="n">
+        <v>1</v>
       </c>
       <c r="AY85" t="n">
         <v>1</v>
@@ -10177,7 +10933,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>14291</v>
+        <v>14525</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -10258,6 +11014,9 @@
           <t>Oval</t>
         </is>
       </c>
+      <c r="AP86" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ86" t="n">
         <v>1</v>
       </c>
@@ -10271,6 +11030,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT86" t="n">
+        <v>1</v>
+      </c>
       <c r="AU86" t="n">
         <v>1</v>
       </c>
@@ -10283,6 +11045,9 @@
         <is>
           <t>10 X 14</t>
         </is>
+      </c>
+      <c r="AX86" t="n">
+        <v>1</v>
       </c>
       <c r="AY86" t="n">
         <v>1</v>
@@ -10290,7 +11055,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>14292</v>
+        <v>14526</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -10371,6 +11136,9 @@
           <t>Oval</t>
         </is>
       </c>
+      <c r="AP87" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ87" t="n">
         <v>1</v>
       </c>
@@ -10384,6 +11152,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT87" t="n">
+        <v>1</v>
+      </c>
       <c r="AU87" t="n">
         <v>1</v>
       </c>
@@ -10396,6 +11167,9 @@
         <is>
           <t>12 X 14</t>
         </is>
+      </c>
+      <c r="AX87" t="n">
+        <v>1</v>
       </c>
       <c r="AY87" t="n">
         <v>1</v>
@@ -10403,7 +11177,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>14293</v>
+        <v>14527</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -10484,6 +11258,9 @@
           <t>Oval</t>
         </is>
       </c>
+      <c r="AP88" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ88" t="n">
         <v>1</v>
       </c>
@@ -10497,6 +11274,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT88" t="n">
+        <v>1</v>
+      </c>
       <c r="AU88" t="n">
         <v>1</v>
       </c>
@@ -10509,6 +11289,9 @@
         <is>
           <t>12 X 16</t>
         </is>
+      </c>
+      <c r="AX88" t="n">
+        <v>1</v>
       </c>
       <c r="AY88" t="n">
         <v>1</v>
@@ -10516,7 +11299,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>14294</v>
+        <v>14528</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -10597,6 +11380,9 @@
           <t>Redondo</t>
         </is>
       </c>
+      <c r="AP89" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ89" t="n">
         <v>1</v>
       </c>
@@ -10610,6 +11396,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT89" t="n">
+        <v>1</v>
+      </c>
       <c r="AU89" t="n">
         <v>1</v>
       </c>
@@ -10622,6 +11411,9 @@
         <is>
           <t>0.80</t>
         </is>
+      </c>
+      <c r="AX89" t="n">
+        <v>1</v>
       </c>
       <c r="AY89" t="n">
         <v>1</v>
@@ -10629,7 +11421,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>14295</v>
+        <v>14529</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -10710,6 +11502,9 @@
           <t>Redondo</t>
         </is>
       </c>
+      <c r="AP90" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ90" t="n">
         <v>1</v>
       </c>
@@ -10723,6 +11518,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT90" t="n">
+        <v>1</v>
+      </c>
       <c r="AU90" t="n">
         <v>1</v>
       </c>
@@ -10735,6 +11533,9 @@
         <is>
           <t>0.90</t>
         </is>
+      </c>
+      <c r="AX90" t="n">
+        <v>1</v>
       </c>
       <c r="AY90" t="n">
         <v>1</v>
@@ -10742,7 +11543,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>14296</v>
+        <v>14530</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -10823,6 +11624,9 @@
           <t>Redondo</t>
         </is>
       </c>
+      <c r="AP91" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ91" t="n">
         <v>1</v>
       </c>
@@ -10836,6 +11640,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT91" t="n">
+        <v>1</v>
+      </c>
       <c r="AU91" t="n">
         <v>1</v>
       </c>
@@ -10848,6 +11655,9 @@
         <is>
           <t>1.00</t>
         </is>
+      </c>
+      <c r="AX91" t="n">
+        <v>1</v>
       </c>
       <c r="AY91" t="n">
         <v>1</v>
@@ -10855,7 +11665,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>14297</v>
+        <v>14531</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -10936,6 +11746,9 @@
           <t>Redondo</t>
         </is>
       </c>
+      <c r="AP92" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ92" t="n">
         <v>1</v>
       </c>
@@ -10949,6 +11762,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT92" t="n">
+        <v>1</v>
+      </c>
       <c r="AU92" t="n">
         <v>1</v>
       </c>
@@ -10961,6 +11777,9 @@
         <is>
           <t>1.10</t>
         </is>
+      </c>
+      <c r="AX92" t="n">
+        <v>1</v>
       </c>
       <c r="AY92" t="n">
         <v>1</v>
@@ -10968,7 +11787,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>14298</v>
+        <v>14532</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -11049,6 +11868,9 @@
           <t>Redondo</t>
         </is>
       </c>
+      <c r="AP93" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ93" t="n">
         <v>1</v>
       </c>
@@ -11062,6 +11884,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT93" t="n">
+        <v>1</v>
+      </c>
       <c r="AU93" t="n">
         <v>1</v>
       </c>
@@ -11074,6 +11899,9 @@
         <is>
           <t>1.15</t>
         </is>
+      </c>
+      <c r="AX93" t="n">
+        <v>1</v>
       </c>
       <c r="AY93" t="n">
         <v>1</v>
@@ -11081,7 +11909,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>14299</v>
+        <v>14533</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -11162,6 +11990,9 @@
           <t>Redondo</t>
         </is>
       </c>
+      <c r="AP94" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ94" t="n">
         <v>1</v>
       </c>
@@ -11175,6 +12006,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT94" t="n">
+        <v>1</v>
+      </c>
       <c r="AU94" t="n">
         <v>1</v>
       </c>
@@ -11187,6 +12021,9 @@
         <is>
           <t>1.20</t>
         </is>
+      </c>
+      <c r="AX94" t="n">
+        <v>1</v>
       </c>
       <c r="AY94" t="n">
         <v>1</v>
@@ -11194,7 +12031,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>14300</v>
+        <v>14534</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -11275,6 +12112,9 @@
           <t>Redondo</t>
         </is>
       </c>
+      <c r="AP95" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ95" t="n">
         <v>1</v>
       </c>
@@ -11288,6 +12128,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT95" t="n">
+        <v>1</v>
+      </c>
       <c r="AU95" t="n">
         <v>1</v>
       </c>
@@ -11300,6 +12143,9 @@
         <is>
           <t>1.25</t>
         </is>
+      </c>
+      <c r="AX95" t="n">
+        <v>1</v>
       </c>
       <c r="AY95" t="n">
         <v>1</v>
@@ -11307,7 +12153,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>14301</v>
+        <v>14535</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -11388,6 +12234,9 @@
           <t>Redondo</t>
         </is>
       </c>
+      <c r="AP96" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ96" t="n">
         <v>1</v>
       </c>
@@ -11401,6 +12250,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT96" t="n">
+        <v>1</v>
+      </c>
       <c r="AU96" t="n">
         <v>1</v>
       </c>
@@ -11413,6 +12265,9 @@
         <is>
           <t>1.25 CAP</t>
         </is>
+      </c>
+      <c r="AX96" t="n">
+        <v>1</v>
       </c>
       <c r="AY96" t="n">
         <v>1</v>
@@ -11420,7 +12275,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>14302</v>
+        <v>14536</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -11501,6 +12356,9 @@
           <t>Redondo</t>
         </is>
       </c>
+      <c r="AP97" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ97" t="n">
         <v>1</v>
       </c>
@@ -11514,6 +12372,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT97" t="n">
+        <v>1</v>
+      </c>
       <c r="AU97" t="n">
         <v>1</v>
       </c>
@@ -11526,6 +12387,9 @@
         <is>
           <t>1.30</t>
         </is>
+      </c>
+      <c r="AX97" t="n">
+        <v>1</v>
       </c>
       <c r="AY97" t="n">
         <v>1</v>
@@ -11533,7 +12397,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>14303</v>
+        <v>14537</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -11614,6 +12478,9 @@
           <t>Redondo</t>
         </is>
       </c>
+      <c r="AP98" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ98" t="n">
         <v>1</v>
       </c>
@@ -11627,6 +12494,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT98" t="n">
+        <v>1</v>
+      </c>
       <c r="AU98" t="n">
         <v>1</v>
       </c>
@@ -11639,6 +12509,9 @@
         <is>
           <t>1.40</t>
         </is>
+      </c>
+      <c r="AX98" t="n">
+        <v>1</v>
       </c>
       <c r="AY98" t="n">
         <v>1</v>
@@ -11646,7 +12519,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>14304</v>
+        <v>14538</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -11727,6 +12600,9 @@
           <t>Redondo</t>
         </is>
       </c>
+      <c r="AP99" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ99" t="n">
         <v>1</v>
       </c>
@@ -11740,6 +12616,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT99" t="n">
+        <v>1</v>
+      </c>
       <c r="AU99" t="n">
         <v>1</v>
       </c>
@@ -11752,6 +12631,9 @@
         <is>
           <t>1.50</t>
         </is>
+      </c>
+      <c r="AX99" t="n">
+        <v>1</v>
       </c>
       <c r="AY99" t="n">
         <v>1</v>
@@ -11759,7 +12641,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>14305</v>
+        <v>14539</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -11840,6 +12722,9 @@
           <t>Redondo</t>
         </is>
       </c>
+      <c r="AP100" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ100" t="n">
         <v>1</v>
       </c>
@@ -11853,6 +12738,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT100" t="n">
+        <v>1</v>
+      </c>
       <c r="AU100" t="n">
         <v>1</v>
       </c>
@@ -11865,6 +12753,9 @@
         <is>
           <t>1.75</t>
         </is>
+      </c>
+      <c r="AX100" t="n">
+        <v>1</v>
       </c>
       <c r="AY100" t="n">
         <v>1</v>
@@ -11872,7 +12763,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>14306</v>
+        <v>14540</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -11953,6 +12844,9 @@
           <t>Redondo</t>
         </is>
       </c>
+      <c r="AP101" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ101" t="n">
         <v>1</v>
       </c>
@@ -11966,6 +12860,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT101" t="n">
+        <v>1</v>
+      </c>
       <c r="AU101" t="n">
         <v>1</v>
       </c>
@@ -11978,6 +12875,9 @@
         <is>
           <t>2.00</t>
         </is>
+      </c>
+      <c r="AX101" t="n">
+        <v>1</v>
       </c>
       <c r="AY101" t="n">
         <v>1</v>
@@ -11985,7 +12885,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>14307</v>
+        <v>14541</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -12066,6 +12966,9 @@
           <t>Redondo</t>
         </is>
       </c>
+      <c r="AP102" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ102" t="n">
         <v>1</v>
       </c>
@@ -12079,6 +12982,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT102" t="n">
+        <v>1</v>
+      </c>
       <c r="AU102" t="n">
         <v>1</v>
       </c>
@@ -12091,6 +12997,9 @@
         <is>
           <t>2.25</t>
         </is>
+      </c>
+      <c r="AX102" t="n">
+        <v>1</v>
       </c>
       <c r="AY102" t="n">
         <v>1</v>
@@ -12098,7 +13007,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>14308</v>
+        <v>14542</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -12179,6 +13088,9 @@
           <t>Redondo</t>
         </is>
       </c>
+      <c r="AP103" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ103" t="n">
         <v>1</v>
       </c>
@@ -12192,6 +13104,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT103" t="n">
+        <v>1</v>
+      </c>
       <c r="AU103" t="n">
         <v>1</v>
       </c>
@@ -12204,6 +13119,9 @@
         <is>
           <t>2.50</t>
         </is>
+      </c>
+      <c r="AX103" t="n">
+        <v>1</v>
       </c>
       <c r="AY103" t="n">
         <v>1</v>
@@ -12211,7 +13129,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>14309</v>
+        <v>14543</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -12292,6 +13210,9 @@
           <t>Redondo</t>
         </is>
       </c>
+      <c r="AP104" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ104" t="n">
         <v>1</v>
       </c>
@@ -12305,6 +13226,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT104" t="n">
+        <v>1</v>
+      </c>
       <c r="AU104" t="n">
         <v>1</v>
       </c>
@@ -12317,6 +13241,9 @@
         <is>
           <t>2.75</t>
         </is>
+      </c>
+      <c r="AX104" t="n">
+        <v>1</v>
       </c>
       <c r="AY104" t="n">
         <v>1</v>
@@ -12324,7 +13251,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>14310</v>
+        <v>14544</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -12405,6 +13332,9 @@
           <t>Redondo</t>
         </is>
       </c>
+      <c r="AP105" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ105" t="n">
         <v>1</v>
       </c>
@@ -12418,6 +13348,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT105" t="n">
+        <v>1</v>
+      </c>
       <c r="AU105" t="n">
         <v>1</v>
       </c>
@@ -12430,6 +13363,9 @@
         <is>
           <t>3.00</t>
         </is>
+      </c>
+      <c r="AX105" t="n">
+        <v>1</v>
       </c>
       <c r="AY105" t="n">
         <v>1</v>
@@ -12437,7 +13373,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>14311</v>
+        <v>14545</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -12518,6 +13454,9 @@
           <t>Redondo</t>
         </is>
       </c>
+      <c r="AP106" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ106" t="n">
         <v>1</v>
       </c>
@@ -12531,6 +13470,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT106" t="n">
+        <v>1</v>
+      </c>
       <c r="AU106" t="n">
         <v>1</v>
       </c>
@@ -12543,6 +13485,9 @@
         <is>
           <t>3.25</t>
         </is>
+      </c>
+      <c r="AX106" t="n">
+        <v>1</v>
       </c>
       <c r="AY106" t="n">
         <v>1</v>
@@ -12550,7 +13495,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>14312</v>
+        <v>14546</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -12631,6 +13576,9 @@
           <t>Redondo</t>
         </is>
       </c>
+      <c r="AP107" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ107" t="n">
         <v>1</v>
       </c>
@@ -12644,6 +13592,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT107" t="n">
+        <v>1</v>
+      </c>
       <c r="AU107" t="n">
         <v>1</v>
       </c>
@@ -12656,6 +13607,9 @@
         <is>
           <t>3.50</t>
         </is>
+      </c>
+      <c r="AX107" t="n">
+        <v>1</v>
       </c>
       <c r="AY107" t="n">
         <v>1</v>
@@ -12663,7 +13617,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>14313</v>
+        <v>14547</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -12744,6 +13698,9 @@
           <t>Redondo</t>
         </is>
       </c>
+      <c r="AP108" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ108" t="n">
         <v>1</v>
       </c>
@@ -12757,6 +13714,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT108" t="n">
+        <v>1</v>
+      </c>
       <c r="AU108" t="n">
         <v>1</v>
       </c>
@@ -12769,6 +13729,9 @@
         <is>
           <t>3.75</t>
         </is>
+      </c>
+      <c r="AX108" t="n">
+        <v>1</v>
       </c>
       <c r="AY108" t="n">
         <v>1</v>
@@ -12776,7 +13739,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>14314</v>
+        <v>14548</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -12857,6 +13820,9 @@
           <t>Redondo</t>
         </is>
       </c>
+      <c r="AP109" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ109" t="n">
         <v>1</v>
       </c>
@@ -12870,6 +13836,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT109" t="n">
+        <v>1</v>
+      </c>
       <c r="AU109" t="n">
         <v>1</v>
       </c>
@@ -12882,6 +13851,9 @@
         <is>
           <t>4.00</t>
         </is>
+      </c>
+      <c r="AX109" t="n">
+        <v>1</v>
       </c>
       <c r="AY109" t="n">
         <v>1</v>
@@ -12889,7 +13861,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>14315</v>
+        <v>14549</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -12970,6 +13942,9 @@
           <t>Redondo</t>
         </is>
       </c>
+      <c r="AP110" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ110" t="n">
         <v>1</v>
       </c>
@@ -12983,6 +13958,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT110" t="n">
+        <v>1</v>
+      </c>
       <c r="AU110" t="n">
         <v>1</v>
       </c>
@@ -12995,6 +13973,9 @@
         <is>
           <t>4.25</t>
         </is>
+      </c>
+      <c r="AX110" t="n">
+        <v>1</v>
       </c>
       <c r="AY110" t="n">
         <v>1</v>
@@ -13002,7 +13983,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>14316</v>
+        <v>14550</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -13083,6 +14064,9 @@
           <t>Redondo</t>
         </is>
       </c>
+      <c r="AP111" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ111" t="n">
         <v>1</v>
       </c>
@@ -13096,6 +14080,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT111" t="n">
+        <v>1</v>
+      </c>
       <c r="AU111" t="n">
         <v>1</v>
       </c>
@@ -13108,6 +14095,9 @@
         <is>
           <t>4.50</t>
         </is>
+      </c>
+      <c r="AX111" t="n">
+        <v>1</v>
       </c>
       <c r="AY111" t="n">
         <v>1</v>
@@ -13115,7 +14105,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>14317</v>
+        <v>14551</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -13196,6 +14186,9 @@
           <t>Redondo</t>
         </is>
       </c>
+      <c r="AP112" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ112" t="n">
         <v>1</v>
       </c>
@@ -13209,6 +14202,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT112" t="n">
+        <v>1</v>
+      </c>
       <c r="AU112" t="n">
         <v>1</v>
       </c>
@@ -13221,6 +14217,9 @@
         <is>
           <t>4.75</t>
         </is>
+      </c>
+      <c r="AX112" t="n">
+        <v>1</v>
       </c>
       <c r="AY112" t="n">
         <v>1</v>
@@ -13228,7 +14227,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>14318</v>
+        <v>14552</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -13309,6 +14308,9 @@
           <t>Redondo</t>
         </is>
       </c>
+      <c r="AP113" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ113" t="n">
         <v>1</v>
       </c>
@@ -13322,6 +14324,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT113" t="n">
+        <v>1</v>
+      </c>
       <c r="AU113" t="n">
         <v>1</v>
       </c>
@@ -13334,6 +14339,9 @@
         <is>
           <t>5.00</t>
         </is>
+      </c>
+      <c r="AX113" t="n">
+        <v>1</v>
       </c>
       <c r="AY113" t="n">
         <v>1</v>
@@ -13341,7 +14349,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>14319</v>
+        <v>14553</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -13422,6 +14430,9 @@
           <t>Redondo</t>
         </is>
       </c>
+      <c r="AP114" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ114" t="n">
         <v>1</v>
       </c>
@@ -13435,6 +14446,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT114" t="n">
+        <v>1</v>
+      </c>
       <c r="AU114" t="n">
         <v>1</v>
       </c>
@@ -13447,6 +14461,9 @@
         <is>
           <t>5.25</t>
         </is>
+      </c>
+      <c r="AX114" t="n">
+        <v>1</v>
       </c>
       <c r="AY114" t="n">
         <v>1</v>
@@ -13454,7 +14471,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>14320</v>
+        <v>14554</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -13535,6 +14552,9 @@
           <t>Redondo</t>
         </is>
       </c>
+      <c r="AP115" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ115" t="n">
         <v>1</v>
       </c>
@@ -13548,6 +14568,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT115" t="n">
+        <v>1</v>
+      </c>
       <c r="AU115" t="n">
         <v>1</v>
       </c>
@@ -13560,6 +14583,9 @@
         <is>
           <t>5.50</t>
         </is>
+      </c>
+      <c r="AX115" t="n">
+        <v>1</v>
       </c>
       <c r="AY115" t="n">
         <v>1</v>
@@ -13567,7 +14593,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>14321</v>
+        <v>14555</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -13648,6 +14674,9 @@
           <t>Redondo</t>
         </is>
       </c>
+      <c r="AP116" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ116" t="n">
         <v>1</v>
       </c>
@@ -13661,6 +14690,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT116" t="n">
+        <v>1</v>
+      </c>
       <c r="AU116" t="n">
         <v>1</v>
       </c>
@@ -13673,6 +14705,9 @@
         <is>
           <t>5.75</t>
         </is>
+      </c>
+      <c r="AX116" t="n">
+        <v>1</v>
       </c>
       <c r="AY116" t="n">
         <v>1</v>
@@ -13680,7 +14715,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>14322</v>
+        <v>14556</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -13761,6 +14796,9 @@
           <t>Redondo</t>
         </is>
       </c>
+      <c r="AP117" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ117" t="n">
         <v>1</v>
       </c>
@@ -13774,6 +14812,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT117" t="n">
+        <v>1</v>
+      </c>
       <c r="AU117" t="n">
         <v>1</v>
       </c>
@@ -13786,6 +14827,9 @@
         <is>
           <t>6.00</t>
         </is>
+      </c>
+      <c r="AX117" t="n">
+        <v>1</v>
       </c>
       <c r="AY117" t="n">
         <v>1</v>
@@ -13793,7 +14837,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>14323</v>
+        <v>14557</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -13874,6 +14918,9 @@
           <t>Redondo</t>
         </is>
       </c>
+      <c r="AP118" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ118" t="n">
         <v>1</v>
       </c>
@@ -13887,6 +14934,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT118" t="n">
+        <v>1</v>
+      </c>
       <c r="AU118" t="n">
         <v>1</v>
       </c>
@@ -13899,6 +14949,9 @@
         <is>
           <t>6.50</t>
         </is>
+      </c>
+      <c r="AX118" t="n">
+        <v>1</v>
       </c>
       <c r="AY118" t="n">
         <v>1</v>
@@ -13906,7 +14959,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>14324</v>
+        <v>14558</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -13987,6 +15040,9 @@
           <t>Redondo</t>
         </is>
       </c>
+      <c r="AP119" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ119" t="n">
         <v>1</v>
       </c>
@@ -14000,6 +15056,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT119" t="n">
+        <v>1</v>
+      </c>
       <c r="AU119" t="n">
         <v>1</v>
       </c>
@@ -14012,6 +15071,9 @@
         <is>
           <t>7.00</t>
         </is>
+      </c>
+      <c r="AX119" t="n">
+        <v>1</v>
       </c>
       <c r="AY119" t="n">
         <v>1</v>
@@ -14019,7 +15081,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>14325</v>
+        <v>14559</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -14100,6 +15162,9 @@
           <t>Redondo</t>
         </is>
       </c>
+      <c r="AP120" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ120" t="n">
         <v>1</v>
       </c>
@@ -14113,6 +15178,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT120" t="n">
+        <v>1</v>
+      </c>
       <c r="AU120" t="n">
         <v>1</v>
       </c>
@@ -14125,6 +15193,9 @@
         <is>
           <t>7.50</t>
         </is>
+      </c>
+      <c r="AX120" t="n">
+        <v>1</v>
       </c>
       <c r="AY120" t="n">
         <v>1</v>
@@ -14132,7 +15203,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>14326</v>
+        <v>14560</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -14213,6 +15284,9 @@
           <t>Redondo</t>
         </is>
       </c>
+      <c r="AP121" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ121" t="n">
         <v>1</v>
       </c>
@@ -14226,6 +15300,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT121" t="n">
+        <v>1</v>
+      </c>
       <c r="AU121" t="n">
         <v>1</v>
       </c>
@@ -14238,6 +15315,9 @@
         <is>
           <t>8.00</t>
         </is>
+      </c>
+      <c r="AX121" t="n">
+        <v>1</v>
       </c>
       <c r="AY121" t="n">
         <v>1</v>
@@ -14245,7 +15325,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>14327</v>
+        <v>14561</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -14326,6 +15406,9 @@
           <t>Redondo</t>
         </is>
       </c>
+      <c r="AP122" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ122" t="n">
         <v>1</v>
       </c>
@@ -14339,6 +15422,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT122" t="n">
+        <v>1</v>
+      </c>
       <c r="AU122" t="n">
         <v>1</v>
       </c>
@@ -14351,6 +15437,9 @@
         <is>
           <t>8.50</t>
         </is>
+      </c>
+      <c r="AX122" t="n">
+        <v>1</v>
       </c>
       <c r="AY122" t="n">
         <v>1</v>
@@ -14358,7 +15447,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>14328</v>
+        <v>14562</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -14439,6 +15528,9 @@
           <t>Redondo</t>
         </is>
       </c>
+      <c r="AP123" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ123" t="n">
         <v>1</v>
       </c>
@@ -14452,6 +15544,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT123" t="n">
+        <v>1</v>
+      </c>
       <c r="AU123" t="n">
         <v>1</v>
       </c>
@@ -14464,6 +15559,9 @@
         <is>
           <t>9.00</t>
         </is>
+      </c>
+      <c r="AX123" t="n">
+        <v>1</v>
       </c>
       <c r="AY123" t="n">
         <v>1</v>
@@ -14471,7 +15569,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>14329</v>
+        <v>14563</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -14552,6 +15650,9 @@
           <t>Redondo</t>
         </is>
       </c>
+      <c r="AP124" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ124" t="n">
         <v>1</v>
       </c>
@@ -14565,6 +15666,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT124" t="n">
+        <v>1</v>
+      </c>
       <c r="AU124" t="n">
         <v>1</v>
       </c>
@@ -14577,6 +15681,9 @@
         <is>
           <t>9.50</t>
         </is>
+      </c>
+      <c r="AX124" t="n">
+        <v>1</v>
       </c>
       <c r="AY124" t="n">
         <v>1</v>
@@ -14584,7 +15691,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>14330</v>
+        <v>14564</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -14665,6 +15772,9 @@
           <t>Redondo</t>
         </is>
       </c>
+      <c r="AP125" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ125" t="n">
         <v>1</v>
       </c>
@@ -14678,6 +15788,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT125" t="n">
+        <v>1</v>
+      </c>
       <c r="AU125" t="n">
         <v>1</v>
       </c>
@@ -14690,6 +15803,9 @@
         <is>
           <t>10.00</t>
         </is>
+      </c>
+      <c r="AX125" t="n">
+        <v>1</v>
       </c>
       <c r="AY125" t="n">
         <v>1</v>
@@ -14697,7 +15813,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>14331</v>
+        <v>14565</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -14778,6 +15894,9 @@
           <t>Redondo</t>
         </is>
       </c>
+      <c r="AP126" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ126" t="n">
         <v>1</v>
       </c>
@@ -14791,6 +15910,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT126" t="n">
+        <v>1</v>
+      </c>
       <c r="AU126" t="n">
         <v>1</v>
       </c>
@@ -14803,6 +15925,9 @@
         <is>
           <t>11.00</t>
         </is>
+      </c>
+      <c r="AX126" t="n">
+        <v>1</v>
       </c>
       <c r="AY126" t="n">
         <v>1</v>
@@ -14810,7 +15935,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>14332</v>
+        <v>14566</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -14891,6 +16016,9 @@
           <t>Redondo</t>
         </is>
       </c>
+      <c r="AP127" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ127" t="n">
         <v>1</v>
       </c>
@@ -14904,6 +16032,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT127" t="n">
+        <v>1</v>
+      </c>
       <c r="AU127" t="n">
         <v>1</v>
       </c>
@@ -14916,6 +16047,9 @@
         <is>
           <t>12.00</t>
         </is>
+      </c>
+      <c r="AX127" t="n">
+        <v>1</v>
       </c>
       <c r="AY127" t="n">
         <v>1</v>
@@ -14923,7 +16057,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>14333</v>
+        <v>14567</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -15004,6 +16138,9 @@
           <t>Redonda Milheiro AAA</t>
         </is>
       </c>
+      <c r="AP128" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ128" t="n">
         <v>1</v>
       </c>
@@ -15017,6 +16154,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT128" t="n">
+        <v>1</v>
+      </c>
       <c r="AU128" t="n">
         <v>1</v>
       </c>
@@ -15029,6 +16169,9 @@
         <is>
           <t>0.80 MIL</t>
         </is>
+      </c>
+      <c r="AX128" t="n">
+        <v>1</v>
       </c>
       <c r="AY128" t="n">
         <v>1</v>
@@ -15036,7 +16179,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>14334</v>
+        <v>14568</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -15117,6 +16260,9 @@
           <t>Redonda Milheiro AAA</t>
         </is>
       </c>
+      <c r="AP129" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ129" t="n">
         <v>1</v>
       </c>
@@ -15130,6 +16276,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT129" t="n">
+        <v>1</v>
+      </c>
       <c r="AU129" t="n">
         <v>1</v>
       </c>
@@ -15142,6 +16291,9 @@
         <is>
           <t>0.90 MIL</t>
         </is>
+      </c>
+      <c r="AX129" t="n">
+        <v>1</v>
       </c>
       <c r="AY129" t="n">
         <v>1</v>
@@ -15149,7 +16301,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>14335</v>
+        <v>14569</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -15230,6 +16382,9 @@
           <t>Redonda Milheiro AAA</t>
         </is>
       </c>
+      <c r="AP130" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ130" t="n">
         <v>1</v>
       </c>
@@ -15243,6 +16398,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT130" t="n">
+        <v>1</v>
+      </c>
       <c r="AU130" t="n">
         <v>1</v>
       </c>
@@ -15255,6 +16413,9 @@
         <is>
           <t>1.00 MIL</t>
         </is>
+      </c>
+      <c r="AX130" t="n">
+        <v>1</v>
       </c>
       <c r="AY130" t="n">
         <v>1</v>
@@ -15262,7 +16423,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>14336</v>
+        <v>14570</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -15343,6 +16504,9 @@
           <t>Redonda Milheiro AAA</t>
         </is>
       </c>
+      <c r="AP131" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ131" t="n">
         <v>1</v>
       </c>
@@ -15356,6 +16520,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT131" t="n">
+        <v>1</v>
+      </c>
       <c r="AU131" t="n">
         <v>1</v>
       </c>
@@ -15368,6 +16535,9 @@
         <is>
           <t>1.10 MIL</t>
         </is>
+      </c>
+      <c r="AX131" t="n">
+        <v>1</v>
       </c>
       <c r="AY131" t="n">
         <v>1</v>
@@ -15375,7 +16545,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>14337</v>
+        <v>14571</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -15456,6 +16626,9 @@
           <t>Redonda Milheiro AAA</t>
         </is>
       </c>
+      <c r="AP132" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ132" t="n">
         <v>1</v>
       </c>
@@ -15469,6 +16642,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT132" t="n">
+        <v>1</v>
+      </c>
       <c r="AU132" t="n">
         <v>1</v>
       </c>
@@ -15481,6 +16657,9 @@
         <is>
           <t>1.15 MIL</t>
         </is>
+      </c>
+      <c r="AX132" t="n">
+        <v>1</v>
       </c>
       <c r="AY132" t="n">
         <v>1</v>
@@ -15488,7 +16667,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>14338</v>
+        <v>14572</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -15569,6 +16748,9 @@
           <t>Redonda Milheiro AAA</t>
         </is>
       </c>
+      <c r="AP133" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ133" t="n">
         <v>1</v>
       </c>
@@ -15582,6 +16764,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT133" t="n">
+        <v>1</v>
+      </c>
       <c r="AU133" t="n">
         <v>1</v>
       </c>
@@ -15594,6 +16779,9 @@
         <is>
           <t>1.20 MIL</t>
         </is>
+      </c>
+      <c r="AX133" t="n">
+        <v>1</v>
       </c>
       <c r="AY133" t="n">
         <v>1</v>
@@ -15601,7 +16789,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>14339</v>
+        <v>14573</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -15682,6 +16870,9 @@
           <t>Redonda Milheiro AAA</t>
         </is>
       </c>
+      <c r="AP134" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ134" t="n">
         <v>1</v>
       </c>
@@ -15695,6 +16886,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT134" t="n">
+        <v>1</v>
+      </c>
       <c r="AU134" t="n">
         <v>1</v>
       </c>
@@ -15707,6 +16901,9 @@
         <is>
           <t>1.25 MIL</t>
         </is>
+      </c>
+      <c r="AX134" t="n">
+        <v>1</v>
       </c>
       <c r="AY134" t="n">
         <v>1</v>
@@ -15714,7 +16911,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>14340</v>
+        <v>14574</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -15795,6 +16992,9 @@
           <t>Redonda Milheiro AAA</t>
         </is>
       </c>
+      <c r="AP135" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ135" t="n">
         <v>1</v>
       </c>
@@ -15808,6 +17008,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT135" t="n">
+        <v>1</v>
+      </c>
       <c r="AU135" t="n">
         <v>1</v>
       </c>
@@ -15820,6 +17023,9 @@
         <is>
           <t>1.30 MIL</t>
         </is>
+      </c>
+      <c r="AX135" t="n">
+        <v>1</v>
       </c>
       <c r="AY135" t="n">
         <v>1</v>
@@ -15827,7 +17033,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>14341</v>
+        <v>14575</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -15908,6 +17114,9 @@
           <t>Redonda Milheiro AAA</t>
         </is>
       </c>
+      <c r="AP136" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ136" t="n">
         <v>1</v>
       </c>
@@ -15921,6 +17130,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT136" t="n">
+        <v>1</v>
+      </c>
       <c r="AU136" t="n">
         <v>1</v>
       </c>
@@ -15933,6 +17145,9 @@
         <is>
           <t>1.40 MIL</t>
         </is>
+      </c>
+      <c r="AX136" t="n">
+        <v>1</v>
       </c>
       <c r="AY136" t="n">
         <v>1</v>
@@ -15940,7 +17155,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>14342</v>
+        <v>14576</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -16021,6 +17236,9 @@
           <t>Redonda Milheiro AAA</t>
         </is>
       </c>
+      <c r="AP137" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ137" t="n">
         <v>1</v>
       </c>
@@ -16034,6 +17252,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT137" t="n">
+        <v>1</v>
+      </c>
       <c r="AU137" t="n">
         <v>1</v>
       </c>
@@ -16046,6 +17267,9 @@
         <is>
           <t>1.50 MIL</t>
         </is>
+      </c>
+      <c r="AX137" t="n">
+        <v>1</v>
       </c>
       <c r="AY137" t="n">
         <v>1</v>
@@ -16053,7 +17277,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>14343</v>
+        <v>14577</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -16134,6 +17358,9 @@
           <t>Redonda Milheiro AAA</t>
         </is>
       </c>
+      <c r="AP138" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ138" t="n">
         <v>1</v>
       </c>
@@ -16147,6 +17374,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT138" t="n">
+        <v>1</v>
+      </c>
       <c r="AU138" t="n">
         <v>1</v>
       </c>
@@ -16159,6 +17389,9 @@
         <is>
           <t>1.60 MIL</t>
         </is>
+      </c>
+      <c r="AX138" t="n">
+        <v>1</v>
       </c>
       <c r="AY138" t="n">
         <v>1</v>
@@ -16166,7 +17399,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>14344</v>
+        <v>14578</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -16247,6 +17480,9 @@
           <t>Redonda Milheiro AAA</t>
         </is>
       </c>
+      <c r="AP139" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ139" t="n">
         <v>1</v>
       </c>
@@ -16260,6 +17496,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT139" t="n">
+        <v>1</v>
+      </c>
       <c r="AU139" t="n">
         <v>1</v>
       </c>
@@ -16272,6 +17511,9 @@
         <is>
           <t>1.75 MIL</t>
         </is>
+      </c>
+      <c r="AX139" t="n">
+        <v>1</v>
       </c>
       <c r="AY139" t="n">
         <v>1</v>
@@ -16279,7 +17521,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>14345</v>
+        <v>14579</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -16360,6 +17602,9 @@
           <t>Redonda Milheiro AAA</t>
         </is>
       </c>
+      <c r="AP140" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ140" t="n">
         <v>1</v>
       </c>
@@ -16373,6 +17618,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT140" t="n">
+        <v>1</v>
+      </c>
       <c r="AU140" t="n">
         <v>1</v>
       </c>
@@ -16385,6 +17633,9 @@
         <is>
           <t>1.80 MIL</t>
         </is>
+      </c>
+      <c r="AX140" t="n">
+        <v>1</v>
       </c>
       <c r="AY140" t="n">
         <v>1</v>
@@ -16392,7 +17643,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>14346</v>
+        <v>14580</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -16473,6 +17724,9 @@
           <t>Redonda Milheiro AAA</t>
         </is>
       </c>
+      <c r="AP141" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ141" t="n">
         <v>1</v>
       </c>
@@ -16486,6 +17740,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT141" t="n">
+        <v>1</v>
+      </c>
       <c r="AU141" t="n">
         <v>1</v>
       </c>
@@ -16498,6 +17755,9 @@
         <is>
           <t>2.00 MIL</t>
         </is>
+      </c>
+      <c r="AX141" t="n">
+        <v>1</v>
       </c>
       <c r="AY141" t="n">
         <v>1</v>
@@ -16505,7 +17765,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>14347</v>
+        <v>14581</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -16586,6 +17846,9 @@
           <t>Redonda Milheiro AAA</t>
         </is>
       </c>
+      <c r="AP142" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ142" t="n">
         <v>1</v>
       </c>
@@ -16599,6 +17862,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT142" t="n">
+        <v>1</v>
+      </c>
       <c r="AU142" t="n">
         <v>1</v>
       </c>
@@ -16611,6 +17877,9 @@
         <is>
           <t>2.25 MIL</t>
         </is>
+      </c>
+      <c r="AX142" t="n">
+        <v>1</v>
       </c>
       <c r="AY142" t="n">
         <v>1</v>
@@ -16618,7 +17887,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>14348</v>
+        <v>14582</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -16699,6 +17968,9 @@
           <t>Redonda Milheiro AAA</t>
         </is>
       </c>
+      <c r="AP143" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ143" t="n">
         <v>1</v>
       </c>
@@ -16712,6 +17984,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT143" t="n">
+        <v>1</v>
+      </c>
       <c r="AU143" t="n">
         <v>1</v>
       </c>
@@ -16724,6 +17999,9 @@
         <is>
           <t>2.50 MIL</t>
         </is>
+      </c>
+      <c r="AX143" t="n">
+        <v>1</v>
       </c>
       <c r="AY143" t="n">
         <v>1</v>
@@ -16731,7 +18009,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>14349</v>
+        <v>14583</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -16812,6 +18090,9 @@
           <t>Redonda Milheiro AAA</t>
         </is>
       </c>
+      <c r="AP144" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ144" t="n">
         <v>1</v>
       </c>
@@ -16825,6 +18106,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT144" t="n">
+        <v>1</v>
+      </c>
       <c r="AU144" t="n">
         <v>1</v>
       </c>
@@ -16837,6 +18121,9 @@
         <is>
           <t>2.75 MIL</t>
         </is>
+      </c>
+      <c r="AX144" t="n">
+        <v>1</v>
       </c>
       <c r="AY144" t="n">
         <v>1</v>
@@ -16844,7 +18131,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>14350</v>
+        <v>14584</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -16925,6 +18212,9 @@
           <t>Redonda Milheiro AAA</t>
         </is>
       </c>
+      <c r="AP145" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ145" t="n">
         <v>1</v>
       </c>
@@ -16938,6 +18228,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT145" t="n">
+        <v>1</v>
+      </c>
       <c r="AU145" t="n">
         <v>1</v>
       </c>
@@ -16950,6 +18243,9 @@
         <is>
           <t>3.00 MIL</t>
         </is>
+      </c>
+      <c r="AX145" t="n">
+        <v>1</v>
       </c>
       <c r="AY145" t="n">
         <v>1</v>
@@ -16957,7 +18253,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>14351</v>
+        <v>14585</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -17038,6 +18334,9 @@
           <t>Redonda Azul</t>
         </is>
       </c>
+      <c r="AP146" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ146" t="n">
         <v>1</v>
       </c>
@@ -17051,6 +18350,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT146" t="n">
+        <v>1</v>
+      </c>
       <c r="AU146" t="n">
         <v>1</v>
       </c>
@@ -17063,6 +18365,9 @@
         <is>
           <t>1.50 AZUL</t>
         </is>
+      </c>
+      <c r="AX146" t="n">
+        <v>1</v>
       </c>
       <c r="AY146" t="n">
         <v>1</v>
@@ -17070,7 +18375,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>14352</v>
+        <v>14586</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -17151,6 +18456,9 @@
           <t>Redonda Extra</t>
         </is>
       </c>
+      <c r="AP147" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ147" t="n">
         <v>1</v>
       </c>
@@ -17164,6 +18472,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT147" t="n">
+        <v>1</v>
+      </c>
       <c r="AU147" t="n">
         <v>1</v>
       </c>
@@ -17176,6 +18487,9 @@
         <is>
           <t>4.00 EX</t>
         </is>
+      </c>
+      <c r="AX147" t="n">
+        <v>1</v>
       </c>
       <c r="AY147" t="n">
         <v>1</v>
@@ -17183,7 +18497,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>14353</v>
+        <v>14587</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -17264,6 +18578,9 @@
           <t>Redonda Extra</t>
         </is>
       </c>
+      <c r="AP148" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ148" t="n">
         <v>1</v>
       </c>
@@ -17277,6 +18594,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT148" t="n">
+        <v>1</v>
+      </c>
       <c r="AU148" t="n">
         <v>1</v>
       </c>
@@ -17289,6 +18609,9 @@
         <is>
           <t>5.00 EX</t>
         </is>
+      </c>
+      <c r="AX148" t="n">
+        <v>1</v>
       </c>
       <c r="AY148" t="n">
         <v>1</v>
@@ -17296,7 +18619,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>14354</v>
+        <v>14588</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -17377,6 +18700,9 @@
           <t>Redonda Extra</t>
         </is>
       </c>
+      <c r="AP149" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ149" t="n">
         <v>1</v>
       </c>
@@ -17390,6 +18716,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT149" t="n">
+        <v>1</v>
+      </c>
       <c r="AU149" t="n">
         <v>1</v>
       </c>
@@ -17402,6 +18731,9 @@
         <is>
           <t>6.00 EX</t>
         </is>
+      </c>
+      <c r="AX149" t="n">
+        <v>1</v>
       </c>
       <c r="AY149" t="n">
         <v>1</v>
@@ -17409,7 +18741,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>14355</v>
+        <v>14589</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -17490,6 +18822,9 @@
           <t>Redonda Fume</t>
         </is>
       </c>
+      <c r="AP150" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ150" t="n">
         <v>1</v>
       </c>
@@ -17503,6 +18838,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT150" t="n">
+        <v>1</v>
+      </c>
       <c r="AU150" t="n">
         <v>1</v>
       </c>
@@ -17515,6 +18853,9 @@
         <is>
           <t>1.50 FUME</t>
         </is>
+      </c>
+      <c r="AX150" t="n">
+        <v>1</v>
       </c>
       <c r="AY150" t="n">
         <v>1</v>
@@ -17522,7 +18863,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>14356</v>
+        <v>14590</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -17603,6 +18944,9 @@
           <t>Redonda Milheiro Extra</t>
         </is>
       </c>
+      <c r="AP151" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ151" t="n">
         <v>1</v>
       </c>
@@ -17616,6 +18960,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT151" t="n">
+        <v>1</v>
+      </c>
       <c r="AU151" t="n">
         <v>1</v>
       </c>
@@ -17628,6 +18975,9 @@
         <is>
           <t>0.80 MIL</t>
         </is>
+      </c>
+      <c r="AX151" t="n">
+        <v>1</v>
       </c>
       <c r="AY151" t="n">
         <v>1</v>
@@ -17635,7 +18985,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>14357</v>
+        <v>14591</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -17716,6 +19066,9 @@
           <t>Redonda Milheiro Extra</t>
         </is>
       </c>
+      <c r="AP152" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ152" t="n">
         <v>1</v>
       </c>
@@ -17729,6 +19082,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT152" t="n">
+        <v>1</v>
+      </c>
       <c r="AU152" t="n">
         <v>1</v>
       </c>
@@ -17741,6 +19097,9 @@
         <is>
           <t>0.90 MIL</t>
         </is>
+      </c>
+      <c r="AX152" t="n">
+        <v>1</v>
       </c>
       <c r="AY152" t="n">
         <v>1</v>
@@ -17748,7 +19107,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>14358</v>
+        <v>14592</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -17829,6 +19188,9 @@
           <t>Redonda Milheiro Extra</t>
         </is>
       </c>
+      <c r="AP153" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ153" t="n">
         <v>1</v>
       </c>
@@ -17842,6 +19204,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT153" t="n">
+        <v>1</v>
+      </c>
       <c r="AU153" t="n">
         <v>1</v>
       </c>
@@ -17854,6 +19219,9 @@
         <is>
           <t>1.00 MIL</t>
         </is>
+      </c>
+      <c r="AX153" t="n">
+        <v>1</v>
       </c>
       <c r="AY153" t="n">
         <v>1</v>
@@ -17861,7 +19229,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>14359</v>
+        <v>14593</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -17942,6 +19310,9 @@
           <t>Redonda Milheiro Extra</t>
         </is>
       </c>
+      <c r="AP154" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ154" t="n">
         <v>1</v>
       </c>
@@ -17955,6 +19326,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT154" t="n">
+        <v>1</v>
+      </c>
       <c r="AU154" t="n">
         <v>1</v>
       </c>
@@ -17967,6 +19341,9 @@
         <is>
           <t>1.10 MIL</t>
         </is>
+      </c>
+      <c r="AX154" t="n">
+        <v>1</v>
       </c>
       <c r="AY154" t="n">
         <v>1</v>
@@ -17974,7 +19351,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>14360</v>
+        <v>14594</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -18055,6 +19432,9 @@
           <t>Redonda Milheiro Extra</t>
         </is>
       </c>
+      <c r="AP155" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ155" t="n">
         <v>1</v>
       </c>
@@ -18068,6 +19448,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT155" t="n">
+        <v>1</v>
+      </c>
       <c r="AU155" t="n">
         <v>1</v>
       </c>
@@ -18080,6 +19463,9 @@
         <is>
           <t>1.20 MIL</t>
         </is>
+      </c>
+      <c r="AX155" t="n">
+        <v>1</v>
       </c>
       <c r="AY155" t="n">
         <v>1</v>
@@ -18087,7 +19473,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>14361</v>
+        <v>14595</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -18168,6 +19554,9 @@
           <t>Redonda Milheiro Extra</t>
         </is>
       </c>
+      <c r="AP156" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ156" t="n">
         <v>1</v>
       </c>
@@ -18181,6 +19570,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT156" t="n">
+        <v>1</v>
+      </c>
       <c r="AU156" t="n">
         <v>1</v>
       </c>
@@ -18193,6 +19585,9 @@
         <is>
           <t>1.25 MIL</t>
         </is>
+      </c>
+      <c r="AX156" t="n">
+        <v>1</v>
       </c>
       <c r="AY156" t="n">
         <v>1</v>
@@ -18200,7 +19595,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>14362</v>
+        <v>14596</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -18281,6 +19676,9 @@
           <t>Redonda Milheiro Extra</t>
         </is>
       </c>
+      <c r="AP157" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ157" t="n">
         <v>1</v>
       </c>
@@ -18294,6 +19692,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT157" t="n">
+        <v>1</v>
+      </c>
       <c r="AU157" t="n">
         <v>1</v>
       </c>
@@ -18306,6 +19707,9 @@
         <is>
           <t>1.40 MIL</t>
         </is>
+      </c>
+      <c r="AX157" t="n">
+        <v>1</v>
       </c>
       <c r="AY157" t="n">
         <v>1</v>
@@ -18313,7 +19717,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>14363</v>
+        <v>14597</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -18394,6 +19798,9 @@
           <t>Redonda Milheiro Extra</t>
         </is>
       </c>
+      <c r="AP158" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ158" t="n">
         <v>1</v>
       </c>
@@ -18407,6 +19814,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT158" t="n">
+        <v>1</v>
+      </c>
       <c r="AU158" t="n">
         <v>1</v>
       </c>
@@ -18419,6 +19829,9 @@
         <is>
           <t>1.50 MIL</t>
         </is>
+      </c>
+      <c r="AX158" t="n">
+        <v>1</v>
       </c>
       <c r="AY158" t="n">
         <v>1</v>
@@ -18426,7 +19839,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>14364</v>
+        <v>14598</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -18507,6 +19920,9 @@
           <t>Redonda Milheiro Extra</t>
         </is>
       </c>
+      <c r="AP159" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ159" t="n">
         <v>1</v>
       </c>
@@ -18520,6 +19936,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT159" t="n">
+        <v>1</v>
+      </c>
       <c r="AU159" t="n">
         <v>1</v>
       </c>
@@ -18532,6 +19951,9 @@
         <is>
           <t>1.75 MIL</t>
         </is>
+      </c>
+      <c r="AX159" t="n">
+        <v>1</v>
       </c>
       <c r="AY159" t="n">
         <v>1</v>
@@ -18539,7 +19961,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>14365</v>
+        <v>14599</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -18620,6 +20042,9 @@
           <t>Redonda Milheiro Extra</t>
         </is>
       </c>
+      <c r="AP160" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ160" t="n">
         <v>1</v>
       </c>
@@ -18633,6 +20058,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT160" t="n">
+        <v>1</v>
+      </c>
       <c r="AU160" t="n">
         <v>1</v>
       </c>
@@ -18645,6 +20073,9 @@
         <is>
           <t>2.00 MIL</t>
         </is>
+      </c>
+      <c r="AX160" t="n">
+        <v>1</v>
       </c>
       <c r="AY160" t="n">
         <v>1</v>
@@ -18652,7 +20083,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>14366</v>
+        <v>14600</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -18733,6 +20164,9 @@
           <t>Redonda Milheiro Rema</t>
         </is>
       </c>
+      <c r="AP161" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ161" t="n">
         <v>1</v>
       </c>
@@ -18746,6 +20180,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT161" t="n">
+        <v>1</v>
+      </c>
       <c r="AU161" t="n">
         <v>1</v>
       </c>
@@ -18758,6 +20195,9 @@
         <is>
           <t>0.80 MIL</t>
         </is>
+      </c>
+      <c r="AX161" t="n">
+        <v>1</v>
       </c>
       <c r="AY161" t="n">
         <v>1</v>
@@ -18765,7 +20205,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>14367</v>
+        <v>14601</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -18846,6 +20286,9 @@
           <t>Redonda Milheiro Rema</t>
         </is>
       </c>
+      <c r="AP162" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ162" t="n">
         <v>1</v>
       </c>
@@ -18859,6 +20302,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT162" t="n">
+        <v>1</v>
+      </c>
       <c r="AU162" t="n">
         <v>1</v>
       </c>
@@ -18871,6 +20317,9 @@
         <is>
           <t>0.90 MIL</t>
         </is>
+      </c>
+      <c r="AX162" t="n">
+        <v>1</v>
       </c>
       <c r="AY162" t="n">
         <v>1</v>
@@ -18878,7 +20327,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>14368</v>
+        <v>14602</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -18959,6 +20408,9 @@
           <t>Redonda Milheiro Rema</t>
         </is>
       </c>
+      <c r="AP163" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ163" t="n">
         <v>1</v>
       </c>
@@ -18972,6 +20424,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT163" t="n">
+        <v>1</v>
+      </c>
       <c r="AU163" t="n">
         <v>1</v>
       </c>
@@ -18984,6 +20439,9 @@
         <is>
           <t>1.00 MIL</t>
         </is>
+      </c>
+      <c r="AX163" t="n">
+        <v>1</v>
       </c>
       <c r="AY163" t="n">
         <v>1</v>
@@ -18991,7 +20449,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>14369</v>
+        <v>14603</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -19072,6 +20530,9 @@
           <t>Redonda Milheiro Rema</t>
         </is>
       </c>
+      <c r="AP164" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ164" t="n">
         <v>1</v>
       </c>
@@ -19085,6 +20546,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT164" t="n">
+        <v>1</v>
+      </c>
       <c r="AU164" t="n">
         <v>1</v>
       </c>
@@ -19097,6 +20561,9 @@
         <is>
           <t>1.10 MIL</t>
         </is>
+      </c>
+      <c r="AX164" t="n">
+        <v>1</v>
       </c>
       <c r="AY164" t="n">
         <v>1</v>
@@ -19104,7 +20571,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>14370</v>
+        <v>14604</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -19185,6 +20652,9 @@
           <t>Redonda Milheiro Rema</t>
         </is>
       </c>
+      <c r="AP165" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ165" t="n">
         <v>1</v>
       </c>
@@ -19198,6 +20668,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT165" t="n">
+        <v>1</v>
+      </c>
       <c r="AU165" t="n">
         <v>1</v>
       </c>
@@ -19210,6 +20683,9 @@
         <is>
           <t>1.20 MIL</t>
         </is>
+      </c>
+      <c r="AX165" t="n">
+        <v>1</v>
       </c>
       <c r="AY165" t="n">
         <v>1</v>
@@ -19217,7 +20693,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>14371</v>
+        <v>14605</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -19298,6 +20774,9 @@
           <t>Redonda Milheiro Rema</t>
         </is>
       </c>
+      <c r="AP166" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ166" t="n">
         <v>1</v>
       </c>
@@ -19311,6 +20790,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT166" t="n">
+        <v>1</v>
+      </c>
       <c r="AU166" t="n">
         <v>1</v>
       </c>
@@ -19323,6 +20805,9 @@
         <is>
           <t>1.25 MIL</t>
         </is>
+      </c>
+      <c r="AX166" t="n">
+        <v>1</v>
       </c>
       <c r="AY166" t="n">
         <v>1</v>
@@ -19330,7 +20815,7 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>14372</v>
+        <v>14606</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -19411,6 +20896,9 @@
           <t>Redonda Milheiro Rema</t>
         </is>
       </c>
+      <c r="AP167" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ167" t="n">
         <v>1</v>
       </c>
@@ -19424,6 +20912,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT167" t="n">
+        <v>1</v>
+      </c>
       <c r="AU167" t="n">
         <v>1</v>
       </c>
@@ -19436,6 +20927,9 @@
         <is>
           <t>1.30 MIL</t>
         </is>
+      </c>
+      <c r="AX167" t="n">
+        <v>1</v>
       </c>
       <c r="AY167" t="n">
         <v>1</v>
@@ -19443,7 +20937,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>14373</v>
+        <v>14607</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -19524,6 +21018,9 @@
           <t>Redonda Milheiro Rema</t>
         </is>
       </c>
+      <c r="AP168" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ168" t="n">
         <v>1</v>
       </c>
@@ -19537,6 +21034,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT168" t="n">
+        <v>1</v>
+      </c>
       <c r="AU168" t="n">
         <v>1</v>
       </c>
@@ -19549,6 +21049,9 @@
         <is>
           <t>1.40 MIL</t>
         </is>
+      </c>
+      <c r="AX168" t="n">
+        <v>1</v>
       </c>
       <c r="AY168" t="n">
         <v>1</v>
@@ -19556,7 +21059,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>14374</v>
+        <v>14608</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -19637,6 +21140,9 @@
           <t>Redonda Milheiro Rema</t>
         </is>
       </c>
+      <c r="AP169" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ169" t="n">
         <v>1</v>
       </c>
@@ -19650,6 +21156,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT169" t="n">
+        <v>1</v>
+      </c>
       <c r="AU169" t="n">
         <v>1</v>
       </c>
@@ -19662,6 +21171,9 @@
         <is>
           <t>1.50 MIL</t>
         </is>
+      </c>
+      <c r="AX169" t="n">
+        <v>1</v>
       </c>
       <c r="AY169" t="n">
         <v>1</v>
@@ -19669,7 +21181,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>14375</v>
+        <v>14609</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -19750,6 +21262,9 @@
           <t>Redonda Milheiro Rema</t>
         </is>
       </c>
+      <c r="AP170" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ170" t="n">
         <v>1</v>
       </c>
@@ -19763,6 +21278,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT170" t="n">
+        <v>1</v>
+      </c>
       <c r="AU170" t="n">
         <v>1</v>
       </c>
@@ -19775,6 +21293,9 @@
         <is>
           <t>1.60 MIL</t>
         </is>
+      </c>
+      <c r="AX170" t="n">
+        <v>1</v>
       </c>
       <c r="AY170" t="n">
         <v>1</v>
@@ -19782,7 +21303,7 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>14376</v>
+        <v>14610</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -19863,6 +21384,9 @@
           <t>Redonda Milheiro Rema</t>
         </is>
       </c>
+      <c r="AP171" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ171" t="n">
         <v>1</v>
       </c>
@@ -19876,6 +21400,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT171" t="n">
+        <v>1</v>
+      </c>
       <c r="AU171" t="n">
         <v>1</v>
       </c>
@@ -19888,6 +21415,9 @@
         <is>
           <t>1.75 MIL</t>
         </is>
+      </c>
+      <c r="AX171" t="n">
+        <v>1</v>
       </c>
       <c r="AY171" t="n">
         <v>1</v>
@@ -19895,7 +21425,7 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>14377</v>
+        <v>14611</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -19976,6 +21506,9 @@
           <t>Redonda Milheiro Rema</t>
         </is>
       </c>
+      <c r="AP172" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ172" t="n">
         <v>1</v>
       </c>
@@ -19989,6 +21522,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT172" t="n">
+        <v>1</v>
+      </c>
       <c r="AU172" t="n">
         <v>1</v>
       </c>
@@ -20001,6 +21537,9 @@
         <is>
           <t>1.80 MIL</t>
         </is>
+      </c>
+      <c r="AX172" t="n">
+        <v>1</v>
       </c>
       <c r="AY172" t="n">
         <v>1</v>
@@ -20008,7 +21547,7 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>14378</v>
+        <v>14612</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -20089,6 +21628,9 @@
           <t>Redonda Milheiro Rema</t>
         </is>
       </c>
+      <c r="AP173" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ173" t="n">
         <v>1</v>
       </c>
@@ -20102,6 +21644,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT173" t="n">
+        <v>1</v>
+      </c>
       <c r="AU173" t="n">
         <v>1</v>
       </c>
@@ -20114,6 +21659,9 @@
         <is>
           <t>2.00 MIL</t>
         </is>
+      </c>
+      <c r="AX173" t="n">
+        <v>1</v>
       </c>
       <c r="AY173" t="n">
         <v>1</v>
@@ -20121,7 +21669,7 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>14379</v>
+        <v>14613</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -20202,6 +21750,9 @@
           <t>Redonda Milheiro Rema</t>
         </is>
       </c>
+      <c r="AP174" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ174" t="n">
         <v>1</v>
       </c>
@@ -20215,6 +21766,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT174" t="n">
+        <v>1</v>
+      </c>
       <c r="AU174" t="n">
         <v>1</v>
       </c>
@@ -20227,6 +21781,9 @@
         <is>
           <t>2.50 MIL</t>
         </is>
+      </c>
+      <c r="AX174" t="n">
+        <v>1</v>
       </c>
       <c r="AY174" t="n">
         <v>1</v>
@@ -20234,7 +21791,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>14380</v>
+        <v>14614</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -20315,6 +21872,9 @@
           <t>Redonda Milheiro Rema</t>
         </is>
       </c>
+      <c r="AP175" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ175" t="n">
         <v>1</v>
       </c>
@@ -20328,6 +21888,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT175" t="n">
+        <v>1</v>
+      </c>
       <c r="AU175" t="n">
         <v>1</v>
       </c>
@@ -20340,6 +21903,9 @@
         <is>
           <t>3.00 MIL</t>
         </is>
+      </c>
+      <c r="AX175" t="n">
+        <v>1</v>
       </c>
       <c r="AY175" t="n">
         <v>1</v>
@@ -20347,7 +21913,7 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>14381</v>
+        <v>14615</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -20428,6 +21994,9 @@
           <t>Redonda Milheiros TS</t>
         </is>
       </c>
+      <c r="AP176" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ176" t="n">
         <v>1</v>
       </c>
@@ -20441,6 +22010,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT176" t="n">
+        <v>1</v>
+      </c>
       <c r="AU176" t="n">
         <v>1</v>
       </c>
@@ -20453,6 +22025,9 @@
         <is>
           <t>0.80 MIL</t>
         </is>
+      </c>
+      <c r="AX176" t="n">
+        <v>1</v>
       </c>
       <c r="AY176" t="n">
         <v>1</v>
@@ -20460,7 +22035,7 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>14382</v>
+        <v>14616</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -20541,6 +22116,9 @@
           <t>Redonda Milheiros TS</t>
         </is>
       </c>
+      <c r="AP177" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ177" t="n">
         <v>1</v>
       </c>
@@ -20554,6 +22132,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT177" t="n">
+        <v>1</v>
+      </c>
       <c r="AU177" t="n">
         <v>1</v>
       </c>
@@ -20566,6 +22147,9 @@
         <is>
           <t>0.90 MIL</t>
         </is>
+      </c>
+      <c r="AX177" t="n">
+        <v>1</v>
       </c>
       <c r="AY177" t="n">
         <v>1</v>
@@ -20573,7 +22157,7 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>14383</v>
+        <v>14617</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -20654,6 +22238,9 @@
           <t>Redonda Milheiros TS</t>
         </is>
       </c>
+      <c r="AP178" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ178" t="n">
         <v>1</v>
       </c>
@@ -20667,6 +22254,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT178" t="n">
+        <v>1</v>
+      </c>
       <c r="AU178" t="n">
         <v>1</v>
       </c>
@@ -20679,6 +22269,9 @@
         <is>
           <t>1.00 MIL</t>
         </is>
+      </c>
+      <c r="AX178" t="n">
+        <v>1</v>
       </c>
       <c r="AY178" t="n">
         <v>1</v>
@@ -20686,7 +22279,7 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>14384</v>
+        <v>14618</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -20767,6 +22360,9 @@
           <t>Redonda Milheiros TS</t>
         </is>
       </c>
+      <c r="AP179" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ179" t="n">
         <v>1</v>
       </c>
@@ -20780,6 +22376,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT179" t="n">
+        <v>1</v>
+      </c>
       <c r="AU179" t="n">
         <v>1</v>
       </c>
@@ -20792,6 +22391,9 @@
         <is>
           <t>1.10 MIL</t>
         </is>
+      </c>
+      <c r="AX179" t="n">
+        <v>1</v>
       </c>
       <c r="AY179" t="n">
         <v>1</v>
@@ -20799,7 +22401,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>14385</v>
+        <v>14619</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -20880,6 +22482,9 @@
           <t>Redonda Milheiros TS</t>
         </is>
       </c>
+      <c r="AP180" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ180" t="n">
         <v>1</v>
       </c>
@@ -20893,6 +22498,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT180" t="n">
+        <v>1</v>
+      </c>
       <c r="AU180" t="n">
         <v>1</v>
       </c>
@@ -20905,6 +22513,9 @@
         <is>
           <t>1.20 MIL</t>
         </is>
+      </c>
+      <c r="AX180" t="n">
+        <v>1</v>
       </c>
       <c r="AY180" t="n">
         <v>1</v>
@@ -20912,7 +22523,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>14386</v>
+        <v>14620</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -20993,6 +22604,9 @@
           <t>Redonda Milheiros TS</t>
         </is>
       </c>
+      <c r="AP181" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ181" t="n">
         <v>1</v>
       </c>
@@ -21006,6 +22620,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT181" t="n">
+        <v>1</v>
+      </c>
       <c r="AU181" t="n">
         <v>1</v>
       </c>
@@ -21018,6 +22635,9 @@
         <is>
           <t>1.25 MIL</t>
         </is>
+      </c>
+      <c r="AX181" t="n">
+        <v>1</v>
       </c>
       <c r="AY181" t="n">
         <v>1</v>
@@ -21025,7 +22645,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>14387</v>
+        <v>14621</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -21106,6 +22726,9 @@
           <t>Redonda Milheiros TS</t>
         </is>
       </c>
+      <c r="AP182" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ182" t="n">
         <v>1</v>
       </c>
@@ -21119,6 +22742,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT182" t="n">
+        <v>1</v>
+      </c>
       <c r="AU182" t="n">
         <v>1</v>
       </c>
@@ -21131,6 +22757,9 @@
         <is>
           <t>1.30 MIL</t>
         </is>
+      </c>
+      <c r="AX182" t="n">
+        <v>1</v>
       </c>
       <c r="AY182" t="n">
         <v>1</v>
@@ -21138,7 +22767,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>14388</v>
+        <v>14622</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -21219,6 +22848,9 @@
           <t>Redonda Milheiros TS</t>
         </is>
       </c>
+      <c r="AP183" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ183" t="n">
         <v>1</v>
       </c>
@@ -21232,6 +22864,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT183" t="n">
+        <v>1</v>
+      </c>
       <c r="AU183" t="n">
         <v>1</v>
       </c>
@@ -21244,6 +22879,9 @@
         <is>
           <t>1.40 MIL</t>
         </is>
+      </c>
+      <c r="AX183" t="n">
+        <v>1</v>
       </c>
       <c r="AY183" t="n">
         <v>1</v>
@@ -21251,7 +22889,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>14389</v>
+        <v>14623</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -21332,6 +22970,9 @@
           <t>Redonda Milheiros TS</t>
         </is>
       </c>
+      <c r="AP184" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ184" t="n">
         <v>1</v>
       </c>
@@ -21345,6 +22986,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT184" t="n">
+        <v>1</v>
+      </c>
       <c r="AU184" t="n">
         <v>1</v>
       </c>
@@ -21357,6 +23001,9 @@
         <is>
           <t>1.50 MIL</t>
         </is>
+      </c>
+      <c r="AX184" t="n">
+        <v>1</v>
       </c>
       <c r="AY184" t="n">
         <v>1</v>
@@ -21364,7 +23011,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>14390</v>
+        <v>14624</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -21445,6 +23092,9 @@
           <t>Redonda Milheiros TS</t>
         </is>
       </c>
+      <c r="AP185" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ185" t="n">
         <v>1</v>
       </c>
@@ -21458,6 +23108,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT185" t="n">
+        <v>1</v>
+      </c>
       <c r="AU185" t="n">
         <v>1</v>
       </c>
@@ -21470,6 +23123,9 @@
         <is>
           <t>1.75 MIL</t>
         </is>
+      </c>
+      <c r="AX185" t="n">
+        <v>1</v>
       </c>
       <c r="AY185" t="n">
         <v>1</v>
@@ -21477,7 +23133,7 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>14391</v>
+        <v>14625</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -21558,6 +23214,9 @@
           <t>Redonda Milheiros TS</t>
         </is>
       </c>
+      <c r="AP186" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ186" t="n">
         <v>1</v>
       </c>
@@ -21571,6 +23230,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT186" t="n">
+        <v>1</v>
+      </c>
       <c r="AU186" t="n">
         <v>1</v>
       </c>
@@ -21583,6 +23245,9 @@
         <is>
           <t>2.00 MIL</t>
         </is>
+      </c>
+      <c r="AX186" t="n">
+        <v>1</v>
       </c>
       <c r="AY186" t="n">
         <v>1</v>
@@ -21590,7 +23255,7 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>14392</v>
+        <v>14626</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -21671,6 +23336,9 @@
           <t>Redonda Milheiro</t>
         </is>
       </c>
+      <c r="AP187" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ187" t="n">
         <v>1</v>
       </c>
@@ -21684,6 +23352,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT187" t="n">
+        <v>1</v>
+      </c>
       <c r="AU187" t="n">
         <v>1</v>
       </c>
@@ -21696,6 +23367,9 @@
         <is>
           <t>0.80 MIL</t>
         </is>
+      </c>
+      <c r="AX187" t="n">
+        <v>1</v>
       </c>
       <c r="AY187" t="n">
         <v>1</v>
@@ -21703,7 +23377,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>14393</v>
+        <v>14627</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -21784,6 +23458,9 @@
           <t>Redonda Milheiro</t>
         </is>
       </c>
+      <c r="AP188" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ188" t="n">
         <v>1</v>
       </c>
@@ -21797,6 +23474,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT188" t="n">
+        <v>1</v>
+      </c>
       <c r="AU188" t="n">
         <v>1</v>
       </c>
@@ -21809,6 +23489,9 @@
         <is>
           <t>0.90 MIL</t>
         </is>
+      </c>
+      <c r="AX188" t="n">
+        <v>1</v>
       </c>
       <c r="AY188" t="n">
         <v>1</v>
@@ -21816,7 +23499,7 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>14394</v>
+        <v>14628</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -21897,6 +23580,9 @@
           <t>Redonda Milheiro</t>
         </is>
       </c>
+      <c r="AP189" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ189" t="n">
         <v>1</v>
       </c>
@@ -21910,6 +23596,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT189" t="n">
+        <v>1</v>
+      </c>
       <c r="AU189" t="n">
         <v>1</v>
       </c>
@@ -21922,6 +23611,9 @@
         <is>
           <t>1.00 MIL</t>
         </is>
+      </c>
+      <c r="AX189" t="n">
+        <v>1</v>
       </c>
       <c r="AY189" t="n">
         <v>1</v>
@@ -21929,7 +23621,7 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>14395</v>
+        <v>14629</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -22010,6 +23702,9 @@
           <t>Redonda Milheiro</t>
         </is>
       </c>
+      <c r="AP190" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ190" t="n">
         <v>1</v>
       </c>
@@ -22023,6 +23718,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT190" t="n">
+        <v>1</v>
+      </c>
       <c r="AU190" t="n">
         <v>1</v>
       </c>
@@ -22035,6 +23733,9 @@
         <is>
           <t>1.10 MIL</t>
         </is>
+      </c>
+      <c r="AX190" t="n">
+        <v>1</v>
       </c>
       <c r="AY190" t="n">
         <v>1</v>
@@ -22042,7 +23743,7 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>14396</v>
+        <v>14630</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -22123,6 +23824,9 @@
           <t>Redonda Milheiro</t>
         </is>
       </c>
+      <c r="AP191" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ191" t="n">
         <v>1</v>
       </c>
@@ -22136,6 +23840,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT191" t="n">
+        <v>1</v>
+      </c>
       <c r="AU191" t="n">
         <v>1</v>
       </c>
@@ -22148,6 +23855,9 @@
         <is>
           <t>1.15 MIL</t>
         </is>
+      </c>
+      <c r="AX191" t="n">
+        <v>1</v>
       </c>
       <c r="AY191" t="n">
         <v>1</v>
@@ -22155,7 +23865,7 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>14397</v>
+        <v>14631</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -22236,6 +23946,9 @@
           <t>Redonda Milheiro</t>
         </is>
       </c>
+      <c r="AP192" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ192" t="n">
         <v>1</v>
       </c>
@@ -22249,6 +23962,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT192" t="n">
+        <v>1</v>
+      </c>
       <c r="AU192" t="n">
         <v>1</v>
       </c>
@@ -22261,6 +23977,9 @@
         <is>
           <t>1.20 MIL</t>
         </is>
+      </c>
+      <c r="AX192" t="n">
+        <v>1</v>
       </c>
       <c r="AY192" t="n">
         <v>1</v>
@@ -22268,7 +23987,7 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>14398</v>
+        <v>14632</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -22349,6 +24068,9 @@
           <t>Redonda Milheiro</t>
         </is>
       </c>
+      <c r="AP193" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ193" t="n">
         <v>1</v>
       </c>
@@ -22362,6 +24084,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT193" t="n">
+        <v>1</v>
+      </c>
       <c r="AU193" t="n">
         <v>1</v>
       </c>
@@ -22374,6 +24099,9 @@
         <is>
           <t>1.25 MIL</t>
         </is>
+      </c>
+      <c r="AX193" t="n">
+        <v>1</v>
       </c>
       <c r="AY193" t="n">
         <v>1</v>
@@ -22381,7 +24109,7 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>14399</v>
+        <v>14633</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -22462,6 +24190,9 @@
           <t>Redonda Milheiro</t>
         </is>
       </c>
+      <c r="AP194" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ194" t="n">
         <v>1</v>
       </c>
@@ -22475,6 +24206,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT194" t="n">
+        <v>1</v>
+      </c>
       <c r="AU194" t="n">
         <v>1</v>
       </c>
@@ -22487,6 +24221,9 @@
         <is>
           <t>1.30 MIL</t>
         </is>
+      </c>
+      <c r="AX194" t="n">
+        <v>1</v>
       </c>
       <c r="AY194" t="n">
         <v>1</v>
@@ -22494,7 +24231,7 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>14400</v>
+        <v>14634</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -22575,6 +24312,9 @@
           <t>Redonda Milheiro</t>
         </is>
       </c>
+      <c r="AP195" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ195" t="n">
         <v>1</v>
       </c>
@@ -22588,6 +24328,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT195" t="n">
+        <v>1</v>
+      </c>
       <c r="AU195" t="n">
         <v>1</v>
       </c>
@@ -22600,6 +24343,9 @@
         <is>
           <t>1.40 MIL</t>
         </is>
+      </c>
+      <c r="AX195" t="n">
+        <v>1</v>
       </c>
       <c r="AY195" t="n">
         <v>1</v>
@@ -22607,7 +24353,7 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>14401</v>
+        <v>14635</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -22688,6 +24434,9 @@
           <t>Redonda Milheiro</t>
         </is>
       </c>
+      <c r="AP196" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ196" t="n">
         <v>1</v>
       </c>
@@ -22701,6 +24450,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT196" t="n">
+        <v>1</v>
+      </c>
       <c r="AU196" t="n">
         <v>1</v>
       </c>
@@ -22713,6 +24465,9 @@
         <is>
           <t>1.50 MIL</t>
         </is>
+      </c>
+      <c r="AX196" t="n">
+        <v>1</v>
       </c>
       <c r="AY196" t="n">
         <v>1</v>
@@ -22720,7 +24475,7 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>14402</v>
+        <v>14636</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -22801,6 +24556,9 @@
           <t>Redonda Milheiro</t>
         </is>
       </c>
+      <c r="AP197" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ197" t="n">
         <v>1</v>
       </c>
@@ -22814,6 +24572,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT197" t="n">
+        <v>1</v>
+      </c>
       <c r="AU197" t="n">
         <v>1</v>
       </c>
@@ -22826,6 +24587,9 @@
         <is>
           <t>1.75 MIL</t>
         </is>
+      </c>
+      <c r="AX197" t="n">
+        <v>1</v>
       </c>
       <c r="AY197" t="n">
         <v>1</v>
@@ -22833,7 +24597,7 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>14403</v>
+        <v>14637</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -22914,6 +24678,9 @@
           <t>Redonda Milheiro</t>
         </is>
       </c>
+      <c r="AP198" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ198" t="n">
         <v>1</v>
       </c>
@@ -22927,6 +24694,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT198" t="n">
+        <v>1</v>
+      </c>
       <c r="AU198" t="n">
         <v>1</v>
       </c>
@@ -22939,6 +24709,9 @@
         <is>
           <t>2.00 MIL</t>
         </is>
+      </c>
+      <c r="AX198" t="n">
+        <v>1</v>
       </c>
       <c r="AY198" t="n">
         <v>1</v>
@@ -22946,7 +24719,7 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>14404</v>
+        <v>14638</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -23027,6 +24800,9 @@
           <t>Redonda Milheiro</t>
         </is>
       </c>
+      <c r="AP199" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ199" t="n">
         <v>1</v>
       </c>
@@ -23040,6 +24816,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT199" t="n">
+        <v>1</v>
+      </c>
       <c r="AU199" t="n">
         <v>1</v>
       </c>
@@ -23052,6 +24831,9 @@
         <is>
           <t>2.25 MIL</t>
         </is>
+      </c>
+      <c r="AX199" t="n">
+        <v>1</v>
       </c>
       <c r="AY199" t="n">
         <v>1</v>
@@ -23059,7 +24841,7 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>14405</v>
+        <v>14639</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -23140,6 +24922,9 @@
           <t>Redonda Milheiro</t>
         </is>
       </c>
+      <c r="AP200" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ200" t="n">
         <v>1</v>
       </c>
@@ -23153,6 +24938,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT200" t="n">
+        <v>1</v>
+      </c>
       <c r="AU200" t="n">
         <v>1</v>
       </c>
@@ -23165,6 +24953,9 @@
         <is>
           <t>2.50 MIL</t>
         </is>
+      </c>
+      <c r="AX200" t="n">
+        <v>1</v>
       </c>
       <c r="AY200" t="n">
         <v>1</v>
@@ -23172,7 +24963,7 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>14406</v>
+        <v>14640</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -23253,6 +25044,9 @@
           <t>Redonda Milheiro Asterisco</t>
         </is>
       </c>
+      <c r="AP201" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ201" t="n">
         <v>1</v>
       </c>
@@ -23266,6 +25060,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT201" t="n">
+        <v>1</v>
+      </c>
       <c r="AU201" t="n">
         <v>1</v>
       </c>
@@ -23278,6 +25075,9 @@
         <is>
           <t>0.80 MIL</t>
         </is>
+      </c>
+      <c r="AX201" t="n">
+        <v>1</v>
       </c>
       <c r="AY201" t="n">
         <v>1</v>
@@ -23285,7 +25085,7 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>14407</v>
+        <v>14641</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -23366,6 +25166,9 @@
           <t>Redonda Milheiro Asterisco</t>
         </is>
       </c>
+      <c r="AP202" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ202" t="n">
         <v>1</v>
       </c>
@@ -23379,6 +25182,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT202" t="n">
+        <v>1</v>
+      </c>
       <c r="AU202" t="n">
         <v>1</v>
       </c>
@@ -23391,6 +25197,9 @@
         <is>
           <t>0.90 MIL</t>
         </is>
+      </c>
+      <c r="AX202" t="n">
+        <v>1</v>
       </c>
       <c r="AY202" t="n">
         <v>1</v>
@@ -23398,7 +25207,7 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>14408</v>
+        <v>14642</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -23479,6 +25288,9 @@
           <t>Redonda Milheiro Asterisco</t>
         </is>
       </c>
+      <c r="AP203" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ203" t="n">
         <v>1</v>
       </c>
@@ -23492,6 +25304,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT203" t="n">
+        <v>1</v>
+      </c>
       <c r="AU203" t="n">
         <v>1</v>
       </c>
@@ -23504,6 +25319,9 @@
         <is>
           <t>1.00 MIL</t>
         </is>
+      </c>
+      <c r="AX203" t="n">
+        <v>1</v>
       </c>
       <c r="AY203" t="n">
         <v>1</v>
@@ -23511,7 +25329,7 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>14409</v>
+        <v>14643</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -23592,6 +25410,9 @@
           <t>Redonda Milheiro Asterisco</t>
         </is>
       </c>
+      <c r="AP204" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ204" t="n">
         <v>1</v>
       </c>
@@ -23605,6 +25426,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT204" t="n">
+        <v>1</v>
+      </c>
       <c r="AU204" t="n">
         <v>1</v>
       </c>
@@ -23617,6 +25441,9 @@
         <is>
           <t>1.10 MIL</t>
         </is>
+      </c>
+      <c r="AX204" t="n">
+        <v>1</v>
       </c>
       <c r="AY204" t="n">
         <v>1</v>
@@ -23624,7 +25451,7 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>14410</v>
+        <v>14644</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -23705,6 +25532,9 @@
           <t>Redonda Milheiro Asterisco</t>
         </is>
       </c>
+      <c r="AP205" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ205" t="n">
         <v>1</v>
       </c>
@@ -23718,6 +25548,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT205" t="n">
+        <v>1</v>
+      </c>
       <c r="AU205" t="n">
         <v>1</v>
       </c>
@@ -23730,6 +25563,9 @@
         <is>
           <t>1.20 MIL</t>
         </is>
+      </c>
+      <c r="AX205" t="n">
+        <v>1</v>
       </c>
       <c r="AY205" t="n">
         <v>1</v>
@@ -23737,7 +25573,7 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>14411</v>
+        <v>14645</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -23818,6 +25654,9 @@
           <t>Redonda Milheiro Asterisco</t>
         </is>
       </c>
+      <c r="AP206" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ206" t="n">
         <v>1</v>
       </c>
@@ -23831,6 +25670,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT206" t="n">
+        <v>1</v>
+      </c>
       <c r="AU206" t="n">
         <v>1</v>
       </c>
@@ -23843,6 +25685,9 @@
         <is>
           <t>1.25 MIL</t>
         </is>
+      </c>
+      <c r="AX206" t="n">
+        <v>1</v>
       </c>
       <c r="AY206" t="n">
         <v>1</v>
@@ -23850,7 +25695,7 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>14412</v>
+        <v>14646</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -23931,6 +25776,9 @@
           <t>Redonda Milheiro Asterisco</t>
         </is>
       </c>
+      <c r="AP207" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ207" t="n">
         <v>1</v>
       </c>
@@ -23944,6 +25792,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT207" t="n">
+        <v>1</v>
+      </c>
       <c r="AU207" t="n">
         <v>1</v>
       </c>
@@ -23956,6 +25807,9 @@
         <is>
           <t>1.30 MIL</t>
         </is>
+      </c>
+      <c r="AX207" t="n">
+        <v>1</v>
       </c>
       <c r="AY207" t="n">
         <v>1</v>
@@ -23963,7 +25817,7 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>14413</v>
+        <v>14647</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -24044,6 +25898,9 @@
           <t>Redonda Milheiro Asterisco</t>
         </is>
       </c>
+      <c r="AP208" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ208" t="n">
         <v>1</v>
       </c>
@@ -24057,6 +25914,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT208" t="n">
+        <v>1</v>
+      </c>
       <c r="AU208" t="n">
         <v>1</v>
       </c>
@@ -24069,6 +25929,9 @@
         <is>
           <t>1.40 MIL</t>
         </is>
+      </c>
+      <c r="AX208" t="n">
+        <v>1</v>
       </c>
       <c r="AY208" t="n">
         <v>1</v>
@@ -24076,7 +25939,7 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>14414</v>
+        <v>14648</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -24157,6 +26020,9 @@
           <t>Redonda Milheiro Asterisco</t>
         </is>
       </c>
+      <c r="AP209" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ209" t="n">
         <v>1</v>
       </c>
@@ -24170,6 +26036,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT209" t="n">
+        <v>1</v>
+      </c>
       <c r="AU209" t="n">
         <v>1</v>
       </c>
@@ -24182,6 +26051,9 @@
         <is>
           <t>1.50 MIL</t>
         </is>
+      </c>
+      <c r="AX209" t="n">
+        <v>1</v>
       </c>
       <c r="AY209" t="n">
         <v>1</v>
@@ -24189,7 +26061,7 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>14415</v>
+        <v>14649</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -24270,6 +26142,9 @@
           <t>Redonda Milheiro Asterisco</t>
         </is>
       </c>
+      <c r="AP210" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ210" t="n">
         <v>1</v>
       </c>
@@ -24283,6 +26158,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT210" t="n">
+        <v>1</v>
+      </c>
       <c r="AU210" t="n">
         <v>1</v>
       </c>
@@ -24295,6 +26173,9 @@
         <is>
           <t>1.75 MIL</t>
         </is>
+      </c>
+      <c r="AX210" t="n">
+        <v>1</v>
       </c>
       <c r="AY210" t="n">
         <v>1</v>
@@ -24302,7 +26183,7 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>14416</v>
+        <v>14650</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -24383,6 +26264,9 @@
           <t>Redonda Milheiro Asterisco</t>
         </is>
       </c>
+      <c r="AP211" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ211" t="n">
         <v>1</v>
       </c>
@@ -24396,6 +26280,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT211" t="n">
+        <v>1</v>
+      </c>
       <c r="AU211" t="n">
         <v>1</v>
       </c>
@@ -24408,6 +26295,9 @@
         <is>
           <t>1.80 MIL</t>
         </is>
+      </c>
+      <c r="AX211" t="n">
+        <v>1</v>
       </c>
       <c r="AY211" t="n">
         <v>1</v>
@@ -24415,7 +26305,7 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>14417</v>
+        <v>14651</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -24496,6 +26386,9 @@
           <t>Redonda Milheiro Asterisco</t>
         </is>
       </c>
+      <c r="AP212" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ212" t="n">
         <v>1</v>
       </c>
@@ -24509,6 +26402,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT212" t="n">
+        <v>1</v>
+      </c>
       <c r="AU212" t="n">
         <v>1</v>
       </c>
@@ -24521,6 +26417,9 @@
         <is>
           <t>2.00 MIL</t>
         </is>
+      </c>
+      <c r="AX212" t="n">
+        <v>1</v>
       </c>
       <c r="AY212" t="n">
         <v>1</v>
@@ -24528,7 +26427,7 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>14418</v>
+        <v>14652</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -24609,6 +26508,9 @@
           <t>Redonda Milheiro Asterisco</t>
         </is>
       </c>
+      <c r="AP213" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ213" t="n">
         <v>1</v>
       </c>
@@ -24622,6 +26524,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT213" t="n">
+        <v>1</v>
+      </c>
       <c r="AU213" t="n">
         <v>1</v>
       </c>
@@ -24634,6 +26539,9 @@
         <is>
           <t>2.25 MIL</t>
         </is>
+      </c>
+      <c r="AX213" t="n">
+        <v>1</v>
       </c>
       <c r="AY213" t="n">
         <v>1</v>
@@ -24641,7 +26549,7 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>14419</v>
+        <v>14653</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -24722,6 +26630,9 @@
           <t>Redonda Milheiro Asterisco</t>
         </is>
       </c>
+      <c r="AP214" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ214" t="n">
         <v>1</v>
       </c>
@@ -24735,6 +26646,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT214" t="n">
+        <v>1</v>
+      </c>
       <c r="AU214" t="n">
         <v>1</v>
       </c>
@@ -24747,6 +26661,9 @@
         <is>
           <t>2.50 MIL</t>
         </is>
+      </c>
+      <c r="AX214" t="n">
+        <v>1</v>
       </c>
       <c r="AY214" t="n">
         <v>1</v>
@@ -24754,7 +26671,7 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>14420</v>
+        <v>14654</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -24835,6 +26752,9 @@
           <t>Redonda Milheiro Asterisco</t>
         </is>
       </c>
+      <c r="AP215" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ215" t="n">
         <v>1</v>
       </c>
@@ -24848,6 +26768,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT215" t="n">
+        <v>1</v>
+      </c>
       <c r="AU215" t="n">
         <v>1</v>
       </c>
@@ -24860,6 +26783,9 @@
         <is>
           <t>2.75 MIL</t>
         </is>
+      </c>
+      <c r="AX215" t="n">
+        <v>1</v>
       </c>
       <c r="AY215" t="n">
         <v>1</v>
@@ -24867,7 +26793,7 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>14421</v>
+        <v>14655</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -24948,6 +26874,9 @@
           <t>Redonda Milheiro Asterisco</t>
         </is>
       </c>
+      <c r="AP216" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ216" t="n">
         <v>1</v>
       </c>
@@ -24961,6 +26890,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT216" t="n">
+        <v>1</v>
+      </c>
       <c r="AU216" t="n">
         <v>1</v>
       </c>
@@ -24973,6 +26905,9 @@
         <is>
           <t>3.00 MIL</t>
         </is>
+      </c>
+      <c r="AX216" t="n">
+        <v>1</v>
       </c>
       <c r="AY216" t="n">
         <v>1</v>
@@ -24980,7 +26915,7 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>14422</v>
+        <v>14656</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -25061,6 +26996,9 @@
           <t>Triângulo</t>
         </is>
       </c>
+      <c r="AP217" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ217" t="n">
         <v>1</v>
       </c>
@@ -25074,6 +27012,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT217" t="n">
+        <v>1</v>
+      </c>
       <c r="AU217" t="n">
         <v>1</v>
       </c>
@@ -25086,6 +27027,9 @@
         <is>
           <t>4 X 4 X 4</t>
         </is>
+      </c>
+      <c r="AX217" t="n">
+        <v>1</v>
       </c>
       <c r="AY217" t="n">
         <v>1</v>
@@ -25093,7 +27037,7 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>14423</v>
+        <v>14657</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -25174,6 +27118,9 @@
           <t>Triângulo</t>
         </is>
       </c>
+      <c r="AP218" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ218" t="n">
         <v>1</v>
       </c>
@@ -25187,6 +27134,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT218" t="n">
+        <v>1</v>
+      </c>
       <c r="AU218" t="n">
         <v>1</v>
       </c>
@@ -25199,6 +27149,9 @@
         <is>
           <t>5 X 5 X 5</t>
         </is>
+      </c>
+      <c r="AX218" t="n">
+        <v>1</v>
       </c>
       <c r="AY218" t="n">
         <v>1</v>
@@ -25206,7 +27159,7 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>14424</v>
+        <v>14658</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -25287,6 +27240,9 @@
           <t>Triângulo</t>
         </is>
       </c>
+      <c r="AP219" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ219" t="n">
         <v>1</v>
       </c>
@@ -25300,6 +27256,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT219" t="n">
+        <v>1</v>
+      </c>
       <c r="AU219" t="n">
         <v>1</v>
       </c>
@@ -25312,6 +27271,9 @@
         <is>
           <t>6 X 6 X 6</t>
         </is>
+      </c>
+      <c r="AX219" t="n">
+        <v>1</v>
       </c>
       <c r="AY219" t="n">
         <v>1</v>
@@ -25319,7 +27281,7 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>14425</v>
+        <v>14659</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -25400,6 +27362,9 @@
           <t>Triângulo</t>
         </is>
       </c>
+      <c r="AP220" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ220" t="n">
         <v>1</v>
       </c>
@@ -25413,6 +27378,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT220" t="n">
+        <v>1</v>
+      </c>
       <c r="AU220" t="n">
         <v>1</v>
       </c>
@@ -25425,6 +27393,9 @@
         <is>
           <t>6.5X6.5X6.5</t>
         </is>
+      </c>
+      <c r="AX220" t="n">
+        <v>1</v>
       </c>
       <c r="AY220" t="n">
         <v>1</v>
@@ -25432,7 +27403,7 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>14426</v>
+        <v>14660</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -25513,6 +27484,9 @@
           <t>Triângulo</t>
         </is>
       </c>
+      <c r="AP221" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ221" t="n">
         <v>1</v>
       </c>
@@ -25526,6 +27500,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT221" t="n">
+        <v>1</v>
+      </c>
       <c r="AU221" t="n">
         <v>1</v>
       </c>
@@ -25538,6 +27515,9 @@
         <is>
           <t>7 X 7 X 7</t>
         </is>
+      </c>
+      <c r="AX221" t="n">
+        <v>1</v>
       </c>
       <c r="AY221" t="n">
         <v>1</v>
@@ -25545,7 +27525,7 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>14427</v>
+        <v>14661</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -25626,6 +27606,9 @@
           <t>Triângulo</t>
         </is>
       </c>
+      <c r="AP222" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ222" t="n">
         <v>1</v>
       </c>
@@ -25639,6 +27622,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT222" t="n">
+        <v>1</v>
+      </c>
       <c r="AU222" t="n">
         <v>1</v>
       </c>
@@ -25651,6 +27637,9 @@
         <is>
           <t>8 X 8 X 8</t>
         </is>
+      </c>
+      <c r="AX222" t="n">
+        <v>1</v>
       </c>
       <c r="AY222" t="n">
         <v>1</v>
@@ -25658,7 +27647,7 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>14428</v>
+        <v>14662</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -25739,6 +27728,9 @@
           <t>Triângulo</t>
         </is>
       </c>
+      <c r="AP223" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ223" t="n">
         <v>1</v>
       </c>
@@ -25752,6 +27744,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT223" t="n">
+        <v>1</v>
+      </c>
       <c r="AU223" t="n">
         <v>1</v>
       </c>
@@ -25764,6 +27759,9 @@
         <is>
           <t>9 X 9 X 9</t>
         </is>
+      </c>
+      <c r="AX223" t="n">
+        <v>1</v>
       </c>
       <c r="AY223" t="n">
         <v>1</v>
@@ -25771,7 +27769,7 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>14429</v>
+        <v>14663</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -25852,6 +27850,9 @@
           <t>Triângulo</t>
         </is>
       </c>
+      <c r="AP224" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ224" t="n">
         <v>1</v>
       </c>
@@ -25865,6 +27866,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT224" t="n">
+        <v>1</v>
+      </c>
       <c r="AU224" t="n">
         <v>1</v>
       </c>
@@ -25877,6 +27881,9 @@
         <is>
           <t>10 X 10 X 10</t>
         </is>
+      </c>
+      <c r="AX224" t="n">
+        <v>1</v>
       </c>
       <c r="AY224" t="n">
         <v>1</v>
@@ -25884,7 +27891,7 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>14430</v>
+        <v>14664</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -25965,6 +27972,9 @@
           <t>Triângulo</t>
         </is>
       </c>
+      <c r="AP225" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ225" t="n">
         <v>1</v>
       </c>
@@ -25978,6 +27988,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT225" t="n">
+        <v>1</v>
+      </c>
       <c r="AU225" t="n">
         <v>1</v>
       </c>
@@ -25990,6 +28003,9 @@
         <is>
           <t>11 X 11 X 11</t>
         </is>
+      </c>
+      <c r="AX225" t="n">
+        <v>1</v>
       </c>
       <c r="AY225" t="n">
         <v>1</v>
@@ -25997,7 +28013,7 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>14431</v>
+        <v>14665</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -26078,6 +28094,9 @@
           <t>Trapézio</t>
         </is>
       </c>
+      <c r="AP226" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ226" t="n">
         <v>1</v>
       </c>
@@ -26091,6 +28110,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT226" t="n">
+        <v>1</v>
+      </c>
       <c r="AU226" t="n">
         <v>1</v>
       </c>
@@ -26103,6 +28125,9 @@
         <is>
           <t>0.8 X 1 X 2</t>
         </is>
+      </c>
+      <c r="AX226" t="n">
+        <v>1</v>
       </c>
       <c r="AY226" t="n">
         <v>1</v>
@@ -26110,7 +28135,7 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>14432</v>
+        <v>14666</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -26191,6 +28216,9 @@
           <t>Trapézio</t>
         </is>
       </c>
+      <c r="AP227" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ227" t="n">
         <v>1</v>
       </c>
@@ -26204,6 +28232,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT227" t="n">
+        <v>1</v>
+      </c>
       <c r="AU227" t="n">
         <v>1</v>
       </c>
@@ -26216,6 +28247,9 @@
         <is>
           <t>1 X 1.5 X  3</t>
         </is>
+      </c>
+      <c r="AX227" t="n">
+        <v>1</v>
       </c>
       <c r="AY227" t="n">
         <v>1</v>
@@ -26223,7 +28257,7 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>14433</v>
+        <v>14667</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -26304,6 +28338,9 @@
           <t>Trapézio</t>
         </is>
       </c>
+      <c r="AP228" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ228" t="n">
         <v>1</v>
       </c>
@@ -26317,6 +28354,9 @@
           <t>Facetado</t>
         </is>
       </c>
+      <c r="AT228" t="n">
+        <v>1</v>
+      </c>
       <c r="AU228" t="n">
         <v>1</v>
       </c>
@@ -26329,6 +28369,9 @@
         <is>
           <t>1.5 X 2 X 4</t>
         </is>
+      </c>
+      <c r="AX228" t="n">
+        <v>1</v>
       </c>
       <c r="AY228" t="n">
         <v>1</v>
